--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CD88F-E89B-DB48-88B5-DFA1CC7F73B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C07337-6606-0044-A650-3990EB8377C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2600" windowWidth="23160" windowHeight="16940" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="10440" yWindow="2600" windowWidth="23160" windowHeight="16940" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
@@ -2479,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView topLeftCell="L69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Z88" sqref="X1:Z88"/>
     </sheetView>
   </sheetViews>
@@ -3421,7 +3421,7 @@
         <v>27</v>
       </c>
       <c r="Z19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -3468,7 +3468,7 @@
         <v>27</v>
       </c>
       <c r="Z20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -3515,7 +3515,7 @@
         <v>27</v>
       </c>
       <c r="Z21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -3562,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="Z22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -3609,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="Z23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3656,7 +3656,7 @@
         <v>27</v>
       </c>
       <c r="Z24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -3703,7 +3703,7 @@
         <v>27</v>
       </c>
       <c r="Z25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3750,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="Z26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3797,7 +3797,7 @@
         <v>27</v>
       </c>
       <c r="Z27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3844,7 +3844,7 @@
         <v>27</v>
       </c>
       <c r="Z28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3891,7 +3891,7 @@
         <v>27</v>
       </c>
       <c r="Z29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -3938,7 +3938,7 @@
         <v>27</v>
       </c>
       <c r="Z30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -3985,7 +3985,7 @@
         <v>27</v>
       </c>
       <c r="Z31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -4032,7 +4032,7 @@
         <v>27</v>
       </c>
       <c r="Z32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -4079,7 +4079,7 @@
         <v>27</v>
       </c>
       <c r="Z33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -4126,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="Z34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -4173,7 +4173,7 @@
         <v>27</v>
       </c>
       <c r="Z35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -4220,7 +4220,7 @@
         <v>27</v>
       </c>
       <c r="Z36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -4267,7 +4267,7 @@
         <v>27</v>
       </c>
       <c r="Z37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -4311,7 +4311,7 @@
         <v>27</v>
       </c>
       <c r="Z38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -4352,7 +4352,7 @@
         <v>28</v>
       </c>
       <c r="Z39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -4393,7 +4393,7 @@
         <v>28</v>
       </c>
       <c r="Z40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -4434,7 +4434,7 @@
         <v>28</v>
       </c>
       <c r="Z41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -4475,7 +4475,7 @@
         <v>28</v>
       </c>
       <c r="Z42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -4516,7 +4516,7 @@
         <v>28</v>
       </c>
       <c r="Z43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -4557,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="Z44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -4598,7 +4598,7 @@
         <v>28</v>
       </c>
       <c r="Z45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -4639,7 +4639,7 @@
         <v>28</v>
       </c>
       <c r="Z46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -4680,7 +4680,7 @@
         <v>29</v>
       </c>
       <c r="Z47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -4721,7 +4721,7 @@
         <v>29</v>
       </c>
       <c r="Z48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="8:26">
@@ -4762,7 +4762,7 @@
         <v>29</v>
       </c>
       <c r="Z49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="8:26">
@@ -4803,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="Z50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="8:26">
@@ -4844,7 +4844,7 @@
         <v>29</v>
       </c>
       <c r="Z51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="8:26">
@@ -4885,7 +4885,7 @@
         <v>29</v>
       </c>
       <c r="Z52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="8:26">
@@ -4926,7 +4926,7 @@
         <v>29</v>
       </c>
       <c r="Z53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="8:26">
@@ -4967,7 +4967,7 @@
         <v>29</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="8:26">
@@ -5008,7 +5008,7 @@
         <v>29</v>
       </c>
       <c r="Z55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="8:26">
@@ -5049,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="Z56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="8:26">
@@ -5090,7 +5090,7 @@
         <v>29</v>
       </c>
       <c r="Z57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="8:26">
@@ -5131,7 +5131,7 @@
         <v>29</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="8:26">
@@ -5172,7 +5172,7 @@
         <v>29</v>
       </c>
       <c r="Z59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="8:26">
@@ -5213,7 +5213,7 @@
         <v>29</v>
       </c>
       <c r="Z60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="8:26">
@@ -5254,7 +5254,7 @@
         <v>29</v>
       </c>
       <c r="Z61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="8:26">
@@ -5295,7 +5295,7 @@
         <v>29</v>
       </c>
       <c r="Z62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="8:26">
@@ -5336,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="Z63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="8:26">
@@ -5377,7 +5377,7 @@
         <v>29</v>
       </c>
       <c r="Z64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="8:26">
@@ -5418,7 +5418,7 @@
         <v>29</v>
       </c>
       <c r="Z65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="8:26">
@@ -5459,7 +5459,7 @@
         <v>29</v>
       </c>
       <c r="Z66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="8:26">
@@ -5500,7 +5500,7 @@
         <v>29</v>
       </c>
       <c r="Z67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="8:26">
@@ -5541,7 +5541,7 @@
         <v>29</v>
       </c>
       <c r="Z68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="8:26">
@@ -5582,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="Z69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="8:26">
@@ -5623,7 +5623,7 @@
         <v>29</v>
       </c>
       <c r="Z70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="8:26">
@@ -5664,7 +5664,7 @@
         <v>29</v>
       </c>
       <c r="Z71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="8:26">
@@ -5705,7 +5705,7 @@
         <v>29</v>
       </c>
       <c r="Z72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="8:26">
@@ -5746,7 +5746,7 @@
         <v>29</v>
       </c>
       <c r="Z73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="8:26">
@@ -5787,7 +5787,7 @@
         <v>30</v>
       </c>
       <c r="Z74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="8:26">
@@ -5828,7 +5828,7 @@
         <v>30</v>
       </c>
       <c r="Z75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="8:26">
@@ -5869,7 +5869,7 @@
         <v>30</v>
       </c>
       <c r="Z76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="8:26">
@@ -5910,7 +5910,7 @@
         <v>30</v>
       </c>
       <c r="Z77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="8:26">
@@ -5951,7 +5951,7 @@
         <v>30</v>
       </c>
       <c r="Z78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="8:26">
@@ -5992,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="Z79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="8:26">
@@ -6033,7 +6033,7 @@
         <v>30</v>
       </c>
       <c r="Z80" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="8:26">
@@ -6074,7 +6074,7 @@
         <v>30</v>
       </c>
       <c r="Z81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="8:26">
@@ -6115,7 +6115,7 @@
         <v>30</v>
       </c>
       <c r="Z82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="8:26">
@@ -6156,7 +6156,7 @@
         <v>30</v>
       </c>
       <c r="Z83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="8:26">
@@ -6197,7 +6197,7 @@
         <v>30</v>
       </c>
       <c r="Z84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="8:26">
@@ -6238,7 +6238,7 @@
         <v>30</v>
       </c>
       <c r="Z85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="8:26">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C07337-6606-0044-A650-3990EB8377C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE0620B-4768-2C41-9D90-8CD4736B946A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2600" windowWidth="23160" windowHeight="16940" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="4840" yWindow="2500" windowWidth="23160" windowHeight="16940" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z88" sqref="X1:Z88"/>
+    <sheetView tabSelected="1" topLeftCell="L48" workbookViewId="0">
+      <selection activeCell="X74" sqref="X1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2698,7 +2698,7 @@
         <v>25</v>
       </c>
       <c r="Z4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2751,7 +2751,7 @@
         <v>25</v>
       </c>
       <c r="Z5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2804,7 +2804,7 @@
         <v>25</v>
       </c>
       <c r="Z6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2857,7 +2857,7 @@
         <v>25</v>
       </c>
       <c r="Z7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2904,7 +2904,7 @@
         <v>25</v>
       </c>
       <c r="Z8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2951,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="Z9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2998,7 +2998,7 @@
         <v>25</v>
       </c>
       <c r="Z10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3045,7 +3045,7 @@
         <v>25</v>
       </c>
       <c r="Z11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3092,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="Z12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -3139,7 +3139,7 @@
         <v>26</v>
       </c>
       <c r="Z13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -3186,7 +3186,7 @@
         <v>26</v>
       </c>
       <c r="Z14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3233,7 +3233,7 @@
         <v>26</v>
       </c>
       <c r="Z15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -3280,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="Z16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -3327,7 +3327,7 @@
         <v>26</v>
       </c>
       <c r="Z17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -3374,7 +3374,7 @@
         <v>26</v>
       </c>
       <c r="Z18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5002,7 +5002,7 @@
         <v>127</v>
       </c>
       <c r="X55" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="Y55" t="s">
         <v>29</v>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77345935-CFDB-4C4A-BF30-A4E9F9CC453A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F75549-2EEF-4C41-8C76-5C1263E37B12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="5920" windowWidth="25920" windowHeight="19360" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="920" yWindow="2840" windowWidth="25920" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -854,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2268,6 +2268,14 @@
       </c>
       <c r="J44">
         <v>-69.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>-40.4</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F75549-2EEF-4C41-8C76-5C1263E37B12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B146E8-824F-6145-874E-FB2B09E0EFCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2840" windowWidth="25920" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="3040" yWindow="2520" windowWidth="25920" windowHeight="19360" activeTab="2" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="146">
   <si>
     <t>MnDOT D1</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>color_april_3</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>grade_april_19</t>
+  </si>
+  <si>
+    <t>color_april_19</t>
   </si>
 </sst>
 </file>
@@ -854,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B45" sqref="A1:B45"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B52" sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2276,6 +2285,62 @@
       </c>
       <c r="B45">
         <v>-40.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>-38.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>-32.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>-31.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>-32</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2718,7 +2783,7 @@
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2734,6 +2799,9 @@
       <c r="G1" s="8">
         <v>43926</v>
       </c>
+      <c r="H1" s="8">
+        <v>43932</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>118</v>
       </c>
@@ -2749,8 +2817,14 @@
       <c r="N1" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -2766,6 +2840,9 @@
       <c r="G2" s="4">
         <v>-0.46</v>
       </c>
+      <c r="H2" s="4">
+        <v>-0.44</v>
+      </c>
       <c r="J2" t="s">
         <v>102</v>
       </c>
@@ -2781,8 +2858,14 @@
       <c r="N2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -2798,6 +2881,9 @@
       <c r="G3" s="4">
         <v>-0.18</v>
       </c>
+      <c r="H3" s="4">
+        <v>-0.02</v>
+      </c>
       <c r="J3" t="s">
         <v>70</v>
       </c>
@@ -2813,8 +2899,14 @@
       <c r="N3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -2830,6 +2922,9 @@
       <c r="G4" s="4">
         <v>0.98</v>
       </c>
+      <c r="H4" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J4" t="s">
         <v>115</v>
       </c>
@@ -2845,8 +2940,14 @@
       <c r="N4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -2862,6 +2963,9 @@
       <c r="G5" s="4">
         <v>-0.57999999999999996</v>
       </c>
+      <c r="H5" s="4">
+        <v>-0.51</v>
+      </c>
       <c r="J5" t="s">
         <v>71</v>
       </c>
@@ -2877,8 +2981,14 @@
       <c r="N5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -2894,6 +3004,9 @@
       <c r="G6" s="4">
         <v>-0.37</v>
       </c>
+      <c r="H6" s="4">
+        <v>-0.36</v>
+      </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
@@ -2909,8 +3022,14 @@
       <c r="N6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -2926,6 +3045,9 @@
       <c r="G7" s="4">
         <v>0.12</v>
       </c>
+      <c r="H7" s="4">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="J7" t="s">
         <v>73</v>
       </c>
@@ -2941,8 +3063,14 @@
       <c r="N7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
@@ -2964,8 +3092,14 @@
       <c r="N8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
@@ -2987,8 +3121,14 @@
       <c r="N9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
@@ -3010,8 +3150,14 @@
       <c r="N10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
@@ -3033,8 +3179,14 @@
       <c r="N11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
@@ -3056,8 +3208,14 @@
       <c r="N12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -3079,8 +3237,14 @@
       <c r="N13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -3102,8 +3266,14 @@
       <c r="N14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -3125,8 +3295,14 @@
       <c r="N15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -3148,8 +3324,14 @@
       <c r="N16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -3171,8 +3353,14 @@
       <c r="N17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -3194,8 +3382,14 @@
       <c r="N18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -3217,8 +3411,14 @@
       <c r="N19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -3240,8 +3440,14 @@
       <c r="N20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -3263,8 +3469,14 @@
       <c r="N21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -3286,8 +3498,14 @@
       <c r="N22" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
@@ -3309,8 +3527,14 @@
       <c r="N23" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
@@ -3332,8 +3556,14 @@
       <c r="N24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
@@ -3355,8 +3585,14 @@
       <c r="N25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
@@ -3378,8 +3614,14 @@
       <c r="N26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
@@ -3401,8 +3643,14 @@
       <c r="N27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
@@ -3424,8 +3672,14 @@
       <c r="N28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
@@ -3447,8 +3701,14 @@
       <c r="N29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -3470,8 +3730,14 @@
       <c r="N30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -3493,8 +3759,14 @@
       <c r="N31" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -3516,8 +3788,14 @@
       <c r="N32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -3539,8 +3817,14 @@
       <c r="N33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
@@ -3562,8 +3846,14 @@
       <c r="N34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
@@ -3585,8 +3875,14 @@
       <c r="N35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
@@ -3608,8 +3904,14 @@
       <c r="N36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
@@ -3631,8 +3933,14 @@
       <c r="N37" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
@@ -3651,8 +3959,14 @@
       <c r="N38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="J39" t="s">
         <v>32</v>
       </c>
@@ -3668,8 +3982,14 @@
       <c r="N39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="J40" t="s">
         <v>33</v>
       </c>
@@ -3685,8 +4005,14 @@
       <c r="N40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="J41" t="s">
         <v>54</v>
       </c>
@@ -3702,8 +4028,14 @@
       <c r="N41" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="J42" t="s">
         <v>55</v>
       </c>
@@ -3719,8 +4051,14 @@
       <c r="N42" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="J43" t="s">
         <v>89</v>
       </c>
@@ -3736,8 +4074,14 @@
       <c r="N43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="J44" t="s">
         <v>90</v>
       </c>
@@ -3753,8 +4097,14 @@
       <c r="N44" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="J45" t="s">
         <v>91</v>
       </c>
@@ -3770,8 +4120,14 @@
       <c r="N45" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="J46" t="s">
         <v>39</v>
       </c>
@@ -3787,8 +4143,14 @@
       <c r="N46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="J47" t="s">
         <v>106</v>
       </c>
@@ -3804,8 +4166,14 @@
       <c r="N47" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="J48" t="s">
         <v>56</v>
       </c>
@@ -3821,8 +4189,14 @@
       <c r="N48" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="10:14">
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="10:16">
       <c r="J49" t="s">
         <v>111</v>
       </c>
@@ -3838,8 +4212,14 @@
       <c r="N49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="10:14">
+      <c r="O49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="10:16">
       <c r="J50" t="s">
         <v>112</v>
       </c>
@@ -3855,8 +4235,14 @@
       <c r="N50" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="10:14">
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="10:16">
       <c r="J51" t="s">
         <v>57</v>
       </c>
@@ -3872,8 +4258,14 @@
       <c r="N51" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="10:14">
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="10:16">
       <c r="J52" t="s">
         <v>92</v>
       </c>
@@ -3889,8 +4281,14 @@
       <c r="N52" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" spans="10:14">
+      <c r="O52" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="10:16">
       <c r="J53" t="s">
         <v>40</v>
       </c>
@@ -3906,8 +4304,14 @@
       <c r="N53" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="10:14">
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="10:16">
       <c r="J54" t="s">
         <v>93</v>
       </c>
@@ -3923,8 +4327,14 @@
       <c r="N54" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="10:14">
+      <c r="O54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="10:16">
       <c r="J55" t="s">
         <v>58</v>
       </c>
@@ -3940,8 +4350,14 @@
       <c r="N55" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="10:14">
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+      <c r="P55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="10:16">
       <c r="J56" t="s">
         <v>41</v>
       </c>
@@ -3957,8 +4373,14 @@
       <c r="N56" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="10:14">
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="10:16">
       <c r="J57" t="s">
         <v>113</v>
       </c>
@@ -3974,8 +4396,14 @@
       <c r="N57" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="10:14">
+      <c r="O57" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="10:16">
       <c r="J58" t="s">
         <v>114</v>
       </c>
@@ -3991,8 +4419,14 @@
       <c r="N58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="10:14">
+      <c r="O58" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="10:16">
       <c r="J59" t="s">
         <v>77</v>
       </c>
@@ -4008,8 +4442,14 @@
       <c r="N59" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="10:14">
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="10:16">
       <c r="J60" t="s">
         <v>94</v>
       </c>
@@ -4025,8 +4465,14 @@
       <c r="N60" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="10:14">
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="10:16">
       <c r="J61" t="s">
         <v>78</v>
       </c>
@@ -4042,8 +4488,14 @@
       <c r="N61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="10:14">
+      <c r="O61" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="10:16">
       <c r="J62" t="s">
         <v>95</v>
       </c>
@@ -4059,8 +4511,14 @@
       <c r="N62" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="10:14">
+      <c r="O62" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="10:16">
       <c r="J63" t="s">
         <v>42</v>
       </c>
@@ -4076,8 +4534,14 @@
       <c r="N63" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="10:14">
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="10:16">
       <c r="J64" t="s">
         <v>59</v>
       </c>
@@ -4093,8 +4557,14 @@
       <c r="N64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="10:14">
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16">
       <c r="J65" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4580,14 @@
       <c r="N65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="10:14">
+      <c r="O65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16">
       <c r="J66" t="s">
         <v>61</v>
       </c>
@@ -4127,8 +4603,14 @@
       <c r="N66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="10:14">
+      <c r="O66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16">
       <c r="J67" t="s">
         <v>96</v>
       </c>
@@ -4144,8 +4626,14 @@
       <c r="N67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="10:14">
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16">
       <c r="J68" t="s">
         <v>97</v>
       </c>
@@ -4161,8 +4649,14 @@
       <c r="N68" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="10:14">
+      <c r="O68" t="s">
+        <v>26</v>
+      </c>
+      <c r="P68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16">
       <c r="J69" t="s">
         <v>107</v>
       </c>
@@ -4178,8 +4672,14 @@
       <c r="N69" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="70" spans="10:14">
+      <c r="O69" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16">
       <c r="J70" t="s">
         <v>44</v>
       </c>
@@ -4195,8 +4695,14 @@
       <c r="N70" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="71" spans="10:14">
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16">
       <c r="J71" t="s">
         <v>108</v>
       </c>
@@ -4212,8 +4718,14 @@
       <c r="N71" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="72" spans="10:14">
+      <c r="O71" t="s">
+        <v>31</v>
+      </c>
+      <c r="P71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16">
       <c r="J72" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4741,14 @@
       <c r="N72" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="10:14">
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="10:16">
       <c r="J73" t="s">
         <v>43</v>
       </c>
@@ -4246,8 +4764,14 @@
       <c r="N73" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="10:14">
+      <c r="O73" t="s">
+        <v>143</v>
+      </c>
+      <c r="P73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16">
       <c r="J74" t="s">
         <v>63</v>
       </c>
@@ -4263,8 +4787,14 @@
       <c r="N74" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="10:14">
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="10:16">
       <c r="J75" t="s">
         <v>79</v>
       </c>
@@ -4280,8 +4810,14 @@
       <c r="N75" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="10:14">
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16">
       <c r="J76" t="s">
         <v>98</v>
       </c>
@@ -4297,8 +4833,14 @@
       <c r="N76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="10:14">
+      <c r="O76" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16">
       <c r="J77" t="s">
         <v>99</v>
       </c>
@@ -4314,8 +4856,14 @@
       <c r="N77" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="10:14">
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="10:16">
       <c r="J78" t="s">
         <v>100</v>
       </c>
@@ -4331,8 +4879,14 @@
       <c r="N78" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="10:14">
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16">
       <c r="J79" t="s">
         <v>117</v>
       </c>
@@ -4348,8 +4902,14 @@
       <c r="N79" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="10:14">
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16">
       <c r="J80" t="s">
         <v>64</v>
       </c>
@@ -4365,8 +4925,14 @@
       <c r="N80" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="10:14">
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="10:16">
       <c r="J81" t="s">
         <v>65</v>
       </c>
@@ -4382,8 +4948,14 @@
       <c r="N81" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="10:14">
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="10:16">
       <c r="J82" t="s">
         <v>66</v>
       </c>
@@ -4399,8 +4971,14 @@
       <c r="N82" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="83" spans="10:14">
+      <c r="O82" t="s">
+        <v>26</v>
+      </c>
+      <c r="P82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="10:16">
       <c r="J83" t="s">
         <v>67</v>
       </c>
@@ -4416,8 +4994,14 @@
       <c r="N83" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="84" spans="10:14">
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="10:16">
       <c r="J84" t="s">
         <v>109</v>
       </c>
@@ -4433,8 +5017,14 @@
       <c r="N84" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="85" spans="10:14">
+      <c r="O84" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="10:16">
       <c r="J85" t="s">
         <v>101</v>
       </c>
@@ -4450,8 +5040,14 @@
       <c r="N85" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="86" spans="10:14">
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="10:16">
       <c r="J86" t="s">
         <v>80</v>
       </c>
@@ -4467,8 +5063,14 @@
       <c r="N86" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="87" spans="10:14">
+      <c r="O86" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="10:16">
       <c r="J87" t="s">
         <v>68</v>
       </c>
@@ -4484,8 +5086,14 @@
       <c r="N87" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="88" spans="10:14">
+      <c r="O87" t="s">
+        <v>29</v>
+      </c>
+      <c r="P87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="10:16">
       <c r="J88" t="s">
         <v>69</v>
       </c>
@@ -4501,8 +5109,17 @@
       <c r="N88" t="s">
         <v>120</v>
       </c>
+      <c r="O88" t="s">
+        <v>26</v>
+      </c>
+      <c r="P88" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="Q2:S88">
+    <sortCondition ref="Q1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAFA5A-67E9-5741-A907-137EA5561F27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33937BA6-D9A6-8B4A-BB99-CADDC606DFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="25920" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="25920" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="139">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>grade_april_21</t>
+  </si>
+  <si>
+    <t>color_april_21</t>
   </si>
 </sst>
 </file>
@@ -817,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="A1:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1087,7 @@
         <v>-35.1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>-37.9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>-36.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>-51.6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>-47.8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>-35.299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>-30.9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>-38.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>-39.6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -1177,90 +1183,253 @@
         <v>-68.2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
       <c r="B45">
         <v>-40.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
       <c r="B46">
         <v>-38.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
       <c r="B47">
         <v>-32.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
       <c r="B48">
         <v>-26.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
       <c r="B49">
         <v>-31.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
       <c r="B50">
         <v>-32.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
       <c r="B51">
         <v>-38.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
       <c r="B52">
         <v>-32</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
       <c r="B53">
         <v>-30.8</v>
       </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
       <c r="B54">
         <v>-22.3</v>
       </c>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>-17.8</v>
+      </c>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B56">
+        <v>-23.8</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B57">
+        <v>-24.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B58">
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B59">
+        <v>-21.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B60">
+        <v>-28.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA79" sqref="Y1:AA88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1449,7 @@
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1321,17 +1490,23 @@
       <c r="Q1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -1372,17 +1547,23 @@
       <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -1423,17 +1604,23 @@
       <c r="Q3" t="s">
         <v>114</v>
       </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -1474,17 +1661,23 @@
       <c r="Q4" t="s">
         <v>113</v>
       </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" t="s">
         <v>17</v>
       </c>
-      <c r="V4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -1525,17 +1718,23 @@
       <c r="Q5" t="s">
         <v>113</v>
       </c>
-      <c r="T5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="R5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" t="s">
         <v>17</v>
       </c>
-      <c r="V5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -1576,17 +1775,23 @@
       <c r="Q6" t="s">
         <v>114</v>
       </c>
-      <c r="T6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" t="s">
         <v>17</v>
       </c>
-      <c r="V6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -1627,17 +1832,23 @@
       <c r="Q7" t="s">
         <v>112</v>
       </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" t="s">
         <v>17</v>
       </c>
-      <c r="V7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
@@ -1665,17 +1876,23 @@
       <c r="Q8" t="s">
         <v>113</v>
       </c>
-      <c r="T8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="R8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" t="s">
         <v>17</v>
       </c>
-      <c r="V8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AA8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
@@ -1703,17 +1920,23 @@
       <c r="Q9" t="s">
         <v>113</v>
       </c>
-      <c r="T9" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
@@ -1741,17 +1964,23 @@
       <c r="Q10" t="s">
         <v>112</v>
       </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="R10" t="s">
         <v>17</v>
       </c>
-      <c r="V10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
@@ -1779,17 +2008,23 @@
       <c r="Q11" t="s">
         <v>114</v>
       </c>
-      <c r="T11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
@@ -1817,17 +2052,23 @@
       <c r="Q12" t="s">
         <v>112</v>
       </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -1855,17 +2096,23 @@
       <c r="Q13" t="s">
         <v>112</v>
       </c>
-      <c r="T13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" t="s">
-        <v>18</v>
-      </c>
-      <c r="V13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -1893,17 +2140,23 @@
       <c r="Q14" t="s">
         <v>113</v>
       </c>
-      <c r="T14" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" t="s">
-        <v>18</v>
-      </c>
-      <c r="V14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -1931,17 +2184,23 @@
       <c r="Q15" t="s">
         <v>113</v>
       </c>
-      <c r="T15" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -1969,17 +2228,23 @@
       <c r="Q16" t="s">
         <v>113</v>
       </c>
-      <c r="T16" t="s">
-        <v>92</v>
-      </c>
-      <c r="U16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -2007,17 +2272,23 @@
       <c r="Q17" t="s">
         <v>111</v>
       </c>
-      <c r="T17" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -2045,17 +2316,23 @@
       <c r="Q18" t="s">
         <v>112</v>
       </c>
-      <c r="T18" t="s">
-        <v>109</v>
-      </c>
-      <c r="U18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -2083,17 +2360,23 @@
       <c r="Q19" t="s">
         <v>113</v>
       </c>
-      <c r="T19" t="s">
-        <v>84</v>
-      </c>
-      <c r="U19" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -2121,17 +2404,23 @@
       <c r="Q20" t="s">
         <v>114</v>
       </c>
-      <c r="T20" t="s">
-        <v>54</v>
-      </c>
-      <c r="U20" t="s">
-        <v>18</v>
-      </c>
-      <c r="V20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -2159,17 +2448,23 @@
       <c r="Q21" t="s">
         <v>112</v>
       </c>
-      <c r="T21" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -2197,17 +2492,23 @@
       <c r="Q22" t="s">
         <v>114</v>
       </c>
-      <c r="T22" t="s">
-        <v>90</v>
-      </c>
-      <c r="U22" t="s">
-        <v>18</v>
-      </c>
-      <c r="V22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
@@ -2235,17 +2536,23 @@
       <c r="Q23" t="s">
         <v>112</v>
       </c>
-      <c r="T23" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s">
-        <v>18</v>
-      </c>
-      <c r="V23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
@@ -2273,17 +2580,23 @@
       <c r="Q24" t="s">
         <v>112</v>
       </c>
-      <c r="T24" t="s">
-        <v>89</v>
-      </c>
-      <c r="U24" t="s">
-        <v>18</v>
-      </c>
-      <c r="V24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
@@ -2311,17 +2624,23 @@
       <c r="Q25" t="s">
         <v>114</v>
       </c>
-      <c r="T25" t="s">
-        <v>44</v>
-      </c>
-      <c r="U25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
@@ -2349,17 +2668,23 @@
       <c r="Q26" t="s">
         <v>112</v>
       </c>
-      <c r="T26" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" t="s">
-        <v>18</v>
-      </c>
-      <c r="V26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
@@ -2387,17 +2712,23 @@
       <c r="Q27" t="s">
         <v>113</v>
       </c>
-      <c r="T27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s">
-        <v>18</v>
-      </c>
-      <c r="V27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
@@ -2425,17 +2756,23 @@
       <c r="Q28" t="s">
         <v>113</v>
       </c>
-      <c r="T28" t="s">
-        <v>86</v>
-      </c>
-      <c r="U28" t="s">
-        <v>18</v>
-      </c>
-      <c r="V28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
@@ -2463,17 +2800,23 @@
       <c r="Q29" t="s">
         <v>113</v>
       </c>
-      <c r="T29" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" t="s">
-        <v>18</v>
-      </c>
-      <c r="V29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -2501,17 +2844,23 @@
       <c r="Q30" t="s">
         <v>112</v>
       </c>
-      <c r="T30" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" t="s">
-        <v>125</v>
-      </c>
-      <c r="V30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -2539,17 +2888,23 @@
       <c r="Q31" t="s">
         <v>114</v>
       </c>
-      <c r="T31" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" t="s">
-        <v>125</v>
-      </c>
-      <c r="V31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -2577,17 +2932,23 @@
       <c r="Q32" t="s">
         <v>113</v>
       </c>
-      <c r="T32" t="s">
-        <v>85</v>
-      </c>
-      <c r="U32" t="s">
-        <v>125</v>
-      </c>
-      <c r="V32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -2615,17 +2976,23 @@
       <c r="Q33" t="s">
         <v>113</v>
       </c>
-      <c r="T33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" t="s">
-        <v>19</v>
-      </c>
-      <c r="V33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
@@ -2653,17 +3020,23 @@
       <c r="Q34" t="s">
         <v>112</v>
       </c>
-      <c r="T34" t="s">
-        <v>32</v>
-      </c>
-      <c r="U34" t="s">
-        <v>19</v>
-      </c>
-      <c r="V34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
@@ -2691,17 +3064,23 @@
       <c r="Q35" t="s">
         <v>114</v>
       </c>
-      <c r="T35" t="s">
-        <v>106</v>
-      </c>
-      <c r="U35" t="s">
-        <v>19</v>
-      </c>
-      <c r="V35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
@@ -2729,17 +3108,23 @@
       <c r="Q36" t="s">
         <v>113</v>
       </c>
-      <c r="T36" t="s">
-        <v>29</v>
-      </c>
-      <c r="U36" t="s">
-        <v>19</v>
-      </c>
-      <c r="V36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
@@ -2767,17 +3152,23 @@
       <c r="Q37" t="s">
         <v>112</v>
       </c>
-      <c r="T37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U37" t="s">
-        <v>19</v>
-      </c>
-      <c r="V37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
@@ -2802,17 +3193,23 @@
       <c r="Q38" t="s">
         <v>113</v>
       </c>
-      <c r="T38" t="s">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s">
-        <v>19</v>
-      </c>
-      <c r="V38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>19</v>
+      </c>
+      <c r="S38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>24</v>
       </c>
@@ -2834,17 +3231,23 @@
       <c r="Q39" t="s">
         <v>112</v>
       </c>
-      <c r="T39" t="s">
-        <v>48</v>
-      </c>
-      <c r="U39" t="s">
-        <v>19</v>
-      </c>
-      <c r="V39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>25</v>
       </c>
@@ -2866,17 +3269,23 @@
       <c r="Q40" t="s">
         <v>111</v>
       </c>
-      <c r="T40" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" t="s">
-        <v>19</v>
-      </c>
-      <c r="V40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>46</v>
       </c>
@@ -2898,17 +3307,23 @@
       <c r="Q41" t="s">
         <v>113</v>
       </c>
-      <c r="T41" t="s">
-        <v>47</v>
-      </c>
-      <c r="U41" t="s">
-        <v>19</v>
-      </c>
-      <c r="V41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>47</v>
       </c>
@@ -2930,17 +3345,23 @@
       <c r="Q42" t="s">
         <v>112</v>
       </c>
-      <c r="T42" t="s">
-        <v>76</v>
-      </c>
-      <c r="U42" t="s">
-        <v>19</v>
-      </c>
-      <c r="V42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>19</v>
+      </c>
+      <c r="S42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K43" t="s">
         <v>81</v>
       </c>
@@ -2962,17 +3383,23 @@
       <c r="Q43" t="s">
         <v>113</v>
       </c>
-      <c r="T43" t="s">
-        <v>93</v>
-      </c>
-      <c r="U43" t="s">
-        <v>19</v>
-      </c>
-      <c r="V43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
         <v>82</v>
       </c>
@@ -2994,17 +3421,23 @@
       <c r="Q44" t="s">
         <v>111</v>
       </c>
-      <c r="T44" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s">
-        <v>19</v>
-      </c>
-      <c r="V44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K45" t="s">
         <v>83</v>
       </c>
@@ -3026,17 +3459,23 @@
       <c r="Q45" t="s">
         <v>112</v>
       </c>
-      <c r="T45" t="s">
-        <v>58</v>
-      </c>
-      <c r="U45" t="s">
-        <v>19</v>
-      </c>
-      <c r="V45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>31</v>
       </c>
@@ -3058,17 +3497,23 @@
       <c r="Q46" t="s">
         <v>113</v>
       </c>
-      <c r="T46" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>126</v>
+      </c>
+      <c r="S46" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
         <v>98</v>
       </c>
@@ -3090,17 +3535,23 @@
       <c r="Q47" t="s">
         <v>114</v>
       </c>
-      <c r="T47" t="s">
-        <v>134</v>
-      </c>
-      <c r="U47" t="s">
-        <v>19</v>
-      </c>
-      <c r="V47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>126</v>
+      </c>
+      <c r="S47" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>48</v>
       </c>
@@ -3122,17 +3573,23 @@
       <c r="Q48" t="s">
         <v>112</v>
       </c>
-      <c r="T48" t="s">
-        <v>53</v>
-      </c>
-      <c r="U48" t="s">
-        <v>19</v>
-      </c>
-      <c r="V48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>103</v>
       </c>
@@ -3154,17 +3611,23 @@
       <c r="Q49" t="s">
         <v>113</v>
       </c>
-      <c r="T49" t="s">
-        <v>75</v>
-      </c>
-      <c r="U49" t="s">
-        <v>19</v>
-      </c>
-      <c r="V49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>104</v>
       </c>
@@ -3186,17 +3649,23 @@
       <c r="Q50" t="s">
         <v>113</v>
       </c>
-      <c r="T50" t="s">
-        <v>42</v>
-      </c>
-      <c r="U50" t="s">
-        <v>19</v>
-      </c>
-      <c r="V50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>49</v>
       </c>
@@ -3218,17 +3687,23 @@
       <c r="Q51" t="s">
         <v>113</v>
       </c>
-      <c r="T51" t="s">
-        <v>39</v>
-      </c>
-      <c r="U51" t="s">
-        <v>19</v>
-      </c>
-      <c r="V51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
         <v>84</v>
       </c>
@@ -3250,17 +3725,23 @@
       <c r="Q52" t="s">
         <v>112</v>
       </c>
-      <c r="T52" t="s">
-        <v>99</v>
-      </c>
-      <c r="U52" t="s">
-        <v>19</v>
-      </c>
-      <c r="V52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>18</v>
+      </c>
+      <c r="S52" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>32</v>
       </c>
@@ -3282,17 +3763,23 @@
       <c r="Q53" t="s">
         <v>112</v>
       </c>
-      <c r="T53" t="s">
+      <c r="R53" t="s">
+        <v>19</v>
+      </c>
+      <c r="S53" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y53" t="s">
         <v>107</v>
       </c>
-      <c r="U53" t="s">
-        <v>20</v>
-      </c>
-      <c r="V53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="Z53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>85</v>
       </c>
@@ -3314,17 +3801,23 @@
       <c r="Q54" t="s">
         <v>113</v>
       </c>
-      <c r="T54" t="s">
-        <v>73</v>
-      </c>
-      <c r="U54" t="s">
-        <v>20</v>
-      </c>
-      <c r="V54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>125</v>
+      </c>
+      <c r="S54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>50</v>
       </c>
@@ -3346,17 +3839,23 @@
       <c r="Q55" t="s">
         <v>111</v>
       </c>
-      <c r="T55" t="s">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s">
-        <v>20</v>
-      </c>
-      <c r="V55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>33</v>
       </c>
@@ -3378,17 +3877,23 @@
       <c r="Q56" t="s">
         <v>113</v>
       </c>
-      <c r="T56" t="s">
-        <v>68</v>
-      </c>
-      <c r="U56" t="s">
-        <v>20</v>
-      </c>
-      <c r="V56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S56" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K57" t="s">
         <v>105</v>
       </c>
@@ -3410,17 +3915,23 @@
       <c r="Q57" t="s">
         <v>113</v>
       </c>
-      <c r="T57" t="s">
-        <v>69</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="R57" t="s">
         <v>20</v>
       </c>
-      <c r="V57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>106</v>
       </c>
@@ -3442,17 +3953,23 @@
       <c r="Q58" t="s">
         <v>113</v>
       </c>
-      <c r="T58" t="s">
-        <v>105</v>
-      </c>
-      <c r="U58" t="s">
-        <v>20</v>
-      </c>
-      <c r="V58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R58" t="s">
+        <v>19</v>
+      </c>
+      <c r="S58" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>69</v>
       </c>
@@ -3474,17 +3991,23 @@
       <c r="Q59" t="s">
         <v>113</v>
       </c>
-      <c r="T59" t="s">
-        <v>70</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="R59" t="s">
         <v>20</v>
       </c>
-      <c r="V59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="S59" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>86</v>
       </c>
@@ -3506,17 +4029,23 @@
       <c r="Q60" t="s">
         <v>112</v>
       </c>
-      <c r="T60" t="s">
-        <v>72</v>
-      </c>
-      <c r="U60" t="s">
-        <v>20</v>
-      </c>
-      <c r="V60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>18</v>
+      </c>
+      <c r="S60" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>70</v>
       </c>
@@ -3538,17 +4067,23 @@
       <c r="Q61" t="s">
         <v>113</v>
       </c>
-      <c r="T61" t="s">
-        <v>104</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="R61" t="s">
         <v>20</v>
       </c>
-      <c r="V61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="S61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K62" t="s">
         <v>87</v>
       </c>
@@ -3570,17 +4105,23 @@
       <c r="Q62" t="s">
         <v>112</v>
       </c>
-      <c r="T62" t="s">
-        <v>97</v>
-      </c>
-      <c r="U62" t="s">
+      <c r="R62" t="s">
+        <v>18</v>
+      </c>
+      <c r="S62" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s">
         <v>126</v>
       </c>
-      <c r="V62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="AA62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
         <v>34</v>
       </c>
@@ -3602,17 +4143,23 @@
       <c r="Q63" t="s">
         <v>113</v>
       </c>
-      <c r="T63" t="s">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s">
+      <c r="R63" t="s">
+        <v>19</v>
+      </c>
+      <c r="S63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z63" t="s">
         <v>126</v>
       </c>
-      <c r="V63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="AA63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K64" t="s">
         <v>51</v>
       </c>
@@ -3634,17 +4181,23 @@
       <c r="Q64" t="s">
         <v>112</v>
       </c>
-      <c r="T64" t="s">
-        <v>101</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="R64" t="s">
+        <v>19</v>
+      </c>
+      <c r="S64" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z64" t="s">
         <v>126</v>
       </c>
-      <c r="V64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="AA64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K65" t="s">
         <v>52</v>
       </c>
@@ -3666,17 +4219,23 @@
       <c r="Q65" t="s">
         <v>112</v>
       </c>
-      <c r="T65" t="s">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s">
-        <v>126</v>
-      </c>
-      <c r="V65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>17</v>
+      </c>
+      <c r="S65" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K66" t="s">
         <v>53</v>
       </c>
@@ -3698,17 +4257,23 @@
       <c r="Q66" t="s">
         <v>113</v>
       </c>
-      <c r="T66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" t="s">
-        <v>126</v>
-      </c>
-      <c r="V66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R66" t="s">
+        <v>19</v>
+      </c>
+      <c r="S66" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K67" t="s">
         <v>88</v>
       </c>
@@ -3730,17 +4295,23 @@
       <c r="Q67" t="s">
         <v>114</v>
       </c>
-      <c r="T67" t="s">
-        <v>66</v>
-      </c>
-      <c r="U67" t="s">
-        <v>126</v>
-      </c>
-      <c r="V67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R67" t="s">
+        <v>22</v>
+      </c>
+      <c r="S67" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K68" t="s">
         <v>89</v>
       </c>
@@ -3762,17 +4333,23 @@
       <c r="Q68" t="s">
         <v>112</v>
       </c>
-      <c r="T68" t="s">
-        <v>33</v>
-      </c>
-      <c r="U68" t="s">
-        <v>126</v>
-      </c>
-      <c r="V68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R68" t="s">
+        <v>18</v>
+      </c>
+      <c r="S68" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K69" t="s">
         <v>99</v>
       </c>
@@ -3794,17 +4371,23 @@
       <c r="Q69" t="s">
         <v>113</v>
       </c>
-      <c r="T69" t="s">
-        <v>103</v>
-      </c>
-      <c r="U69" t="s">
-        <v>126</v>
-      </c>
-      <c r="V69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R69" t="s">
+        <v>19</v>
+      </c>
+      <c r="S69" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K70" t="s">
         <v>36</v>
       </c>
@@ -3826,17 +4409,23 @@
       <c r="Q70" t="s">
         <v>114</v>
       </c>
-      <c r="T70" t="s">
-        <v>27</v>
-      </c>
-      <c r="U70" t="s">
-        <v>126</v>
-      </c>
-      <c r="V70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K71" t="s">
         <v>100</v>
       </c>
@@ -3858,17 +4447,23 @@
       <c r="Q71" t="s">
         <v>115</v>
       </c>
-      <c r="T71" t="s">
-        <v>96</v>
-      </c>
-      <c r="U71" t="s">
-        <v>126</v>
-      </c>
-      <c r="V71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R71" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K72" t="s">
         <v>54</v>
       </c>
@@ -3890,17 +4485,23 @@
       <c r="Q72" t="s">
         <v>112</v>
       </c>
-      <c r="T72" t="s">
-        <v>98</v>
-      </c>
-      <c r="U72" t="s">
-        <v>126</v>
-      </c>
-      <c r="V72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R72" t="s">
+        <v>18</v>
+      </c>
+      <c r="S72" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K73" t="s">
         <v>35</v>
       </c>
@@ -3922,17 +4523,23 @@
       <c r="Q73" t="s">
         <v>112</v>
       </c>
-      <c r="T73" t="s">
-        <v>55</v>
-      </c>
-      <c r="U73" t="s">
-        <v>21</v>
-      </c>
-      <c r="V73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R73" t="s">
+        <v>125</v>
+      </c>
+      <c r="S73" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K74" t="s">
         <v>55</v>
       </c>
@@ -3954,17 +4561,23 @@
       <c r="Q74" t="s">
         <v>113</v>
       </c>
-      <c r="T74" t="s">
-        <v>26</v>
-      </c>
-      <c r="U74" t="s">
-        <v>21</v>
-      </c>
-      <c r="V74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K75" t="s">
         <v>71</v>
       </c>
@@ -3986,17 +4599,23 @@
       <c r="Q75" t="s">
         <v>114</v>
       </c>
-      <c r="T75" t="s">
-        <v>108</v>
-      </c>
-      <c r="U75" t="s">
-        <v>21</v>
-      </c>
-      <c r="V75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R75" t="s">
+        <v>22</v>
+      </c>
+      <c r="S75" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K76" t="s">
         <v>90</v>
       </c>
@@ -4018,17 +4637,23 @@
       <c r="Q76" t="s">
         <v>112</v>
       </c>
-      <c r="T76" t="s">
-        <v>36</v>
-      </c>
-      <c r="U76" t="s">
-        <v>21</v>
-      </c>
-      <c r="V76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>18</v>
+      </c>
+      <c r="S76" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K77" t="s">
         <v>91</v>
       </c>
@@ -4050,17 +4675,23 @@
       <c r="Q77" t="s">
         <v>112</v>
       </c>
-      <c r="T77" t="s">
-        <v>49</v>
-      </c>
-      <c r="U77" t="s">
-        <v>21</v>
-      </c>
-      <c r="V77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R77" t="s">
+        <v>18</v>
+      </c>
+      <c r="S77" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K78" t="s">
         <v>92</v>
       </c>
@@ -4082,17 +4713,23 @@
       <c r="Q78" t="s">
         <v>112</v>
       </c>
-      <c r="T78" t="s">
-        <v>64</v>
-      </c>
-      <c r="U78" t="s">
-        <v>21</v>
-      </c>
-      <c r="V78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R78" t="s">
+        <v>18</v>
+      </c>
+      <c r="S78" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K79" t="s">
         <v>109</v>
       </c>
@@ -4114,17 +4751,23 @@
       <c r="Q79" t="s">
         <v>113</v>
       </c>
-      <c r="T79" t="s">
-        <v>59</v>
-      </c>
-      <c r="U79" t="s">
-        <v>21</v>
-      </c>
-      <c r="V79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S79" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K80" t="s">
         <v>56</v>
       </c>
@@ -4146,17 +4789,23 @@
       <c r="Q80" t="s">
         <v>112</v>
       </c>
-      <c r="T80" t="s">
-        <v>46</v>
-      </c>
-      <c r="U80" t="s">
-        <v>21</v>
-      </c>
-      <c r="V80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R80" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K81" t="s">
         <v>57</v>
       </c>
@@ -4178,17 +4827,23 @@
       <c r="Q81" t="s">
         <v>112</v>
       </c>
-      <c r="T81" t="s">
-        <v>95</v>
-      </c>
-      <c r="U81" t="s">
-        <v>21</v>
-      </c>
-      <c r="V81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>19</v>
+      </c>
+      <c r="S81" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K82" t="s">
         <v>58</v>
       </c>
@@ -4210,17 +4865,23 @@
       <c r="Q82" t="s">
         <v>112</v>
       </c>
-      <c r="T82" t="s">
-        <v>67</v>
-      </c>
-      <c r="U82" t="s">
-        <v>22</v>
-      </c>
-      <c r="V82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R82" t="s">
+        <v>19</v>
+      </c>
+      <c r="S82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K83" t="s">
         <v>59</v>
       </c>
@@ -4242,17 +4903,23 @@
       <c r="Q83" t="s">
         <v>114</v>
       </c>
-      <c r="T83" t="s">
+      <c r="R83" t="s">
+        <v>21</v>
+      </c>
+      <c r="S83" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y83" t="s">
         <v>88</v>
       </c>
-      <c r="U83" t="s">
-        <v>22</v>
-      </c>
-      <c r="V83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="Z83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K84" t="s">
         <v>101</v>
       </c>
@@ -4274,17 +4941,23 @@
       <c r="Q84" t="s">
         <v>113</v>
       </c>
-      <c r="T84" t="s">
+      <c r="R84" t="s">
+        <v>126</v>
+      </c>
+      <c r="S84" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y84" t="s">
         <v>71</v>
       </c>
-      <c r="U84" t="s">
-        <v>22</v>
-      </c>
-      <c r="V84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="Z84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K85" t="s">
         <v>93</v>
       </c>
@@ -4306,17 +4979,23 @@
       <c r="Q85" t="s">
         <v>113</v>
       </c>
-      <c r="T85" t="s">
-        <v>102</v>
-      </c>
-      <c r="U85" t="s">
-        <v>22</v>
-      </c>
-      <c r="V85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="R85" t="s">
+        <v>19</v>
+      </c>
+      <c r="S85" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K86" t="s">
         <v>72</v>
       </c>
@@ -4338,17 +5017,23 @@
       <c r="Q86" t="s">
         <v>113</v>
       </c>
-      <c r="T86" t="s">
+      <c r="R86" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y86" t="s">
         <v>62</v>
       </c>
-      <c r="U86" t="s">
+      <c r="Z86" t="s">
         <v>23</v>
       </c>
-      <c r="V86" t="s">
+      <c r="AA86" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="11:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K87" t="s">
         <v>60</v>
       </c>
@@ -4370,17 +5055,23 @@
       <c r="Q87" t="s">
         <v>114</v>
       </c>
-      <c r="T87" t="s">
-        <v>60</v>
-      </c>
-      <c r="U87" t="s">
+      <c r="R87" t="s">
         <v>23</v>
       </c>
-      <c r="V87" t="s">
+      <c r="S87" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="88" spans="11:22" x14ac:dyDescent="0.2">
+      <c r="Y87" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K88" t="s">
         <v>61</v>
       </c>
@@ -4402,19 +5093,25 @@
       <c r="Q88" t="s">
         <v>112</v>
       </c>
-      <c r="T88" t="s">
-        <v>100</v>
-      </c>
-      <c r="U88" t="s">
-        <v>23</v>
-      </c>
-      <c r="V88" t="s">
-        <v>115</v>
+      <c r="R88" t="s">
+        <v>18</v>
+      </c>
+      <c r="S88" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="R2:T88">
-    <sortCondition ref="R1"/>
+  <sortState ref="T2:V88">
+    <sortCondition ref="T1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33937BA6-D9A6-8B4A-BB99-CADDC606DFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5CBB1-B014-8841-A906-5A3C31EF34FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="25920" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="500" yWindow="980" windowWidth="25920" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="141">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>color_april_21</t>
+  </si>
+  <si>
+    <t>grade_april_28</t>
+  </si>
+  <si>
+    <t>color_april_28</t>
   </si>
 </sst>
 </file>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="A1:B60"/>
+      <selection activeCell="B65" sqref="A1:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1431,6 +1437,46 @@
         <v>-28.9</v>
       </c>
     </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B61">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B62">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B63">
+        <v>-30.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B64">
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B65">
+        <v>-29.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1438,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA79" sqref="Y1:AA88"/>
+    <sheetView tabSelected="1" topLeftCell="G66" workbookViewId="0">
+      <selection activeCell="Z88" sqref="X1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1495,7 @@
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>118</v>
       </c>
       <c r="F1" s="5">
-        <v>43932</v>
+        <v>43950</v>
       </c>
       <c r="G1" s="5">
         <v>43919</v>
@@ -1468,7 +1514,9 @@
       <c r="H1" s="5">
         <v>43926</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>110</v>
       </c>
@@ -1496,17 +1544,23 @@
       <c r="S1" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="Y1" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="4">
-        <v>-0.44</v>
+        <v>-0.35</v>
       </c>
       <c r="G2" s="4">
         <v>-0.57999999999999996</v>
@@ -1525,7 +1579,9 @@
       <c r="H2" s="4">
         <v>-0.46</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>-0.44</v>
+      </c>
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1553,17 +1609,23 @@
       <c r="S2" t="s">
         <v>112</v>
       </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
       <c r="Y2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -1574,7 +1636,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="4">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="G3" s="4">
         <v>-0.35</v>
@@ -1582,7 +1644,9 @@
       <c r="H3" s="4">
         <v>-0.18</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>-0.02</v>
+      </c>
       <c r="K3" t="s">
         <v>62</v>
       </c>
@@ -1610,17 +1674,23 @@
       <c r="S3" t="s">
         <v>115</v>
       </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
       <c r="Y3" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -1631,7 +1701,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5</v>
+        <v>1.21</v>
       </c>
       <c r="G4" s="4">
         <v>-0.16</v>
@@ -1639,7 +1709,9 @@
       <c r="H4" s="4">
         <v>0.98</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>0.5</v>
+      </c>
       <c r="K4" t="s">
         <v>107</v>
       </c>
@@ -1667,17 +1739,23 @@
       <c r="S4" t="s">
         <v>113</v>
       </c>
+      <c r="T4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
       <c r="Y4" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="Z4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -1688,7 +1766,7 @@
         <v>122</v>
       </c>
       <c r="F5" s="4">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="G5" s="4">
         <v>-0.64</v>
@@ -1696,7 +1774,9 @@
       <c r="H5" s="4">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>-0.51</v>
+      </c>
       <c r="K5" t="s">
         <v>63</v>
       </c>
@@ -1724,17 +1804,23 @@
       <c r="S5" t="s">
         <v>113</v>
       </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X5" t="s">
+        <v>28</v>
+      </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -1745,7 +1831,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.36</v>
+        <v>-0.33</v>
       </c>
       <c r="G6" s="4">
         <v>-0.38</v>
@@ -1753,7 +1839,9 @@
       <c r="H6" s="4">
         <v>-0.37</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>-0.36</v>
+      </c>
       <c r="K6" t="s">
         <v>64</v>
       </c>
@@ -1781,17 +1869,23 @@
       <c r="S6" t="s">
         <v>114</v>
       </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>114</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -1802,7 +1896,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G7" s="4">
         <v>0.14000000000000001</v>
@@ -1810,7 +1904,9 @@
       <c r="H7" s="4">
         <v>0.12</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="K7" t="s">
         <v>65</v>
       </c>
@@ -1838,17 +1934,23 @@
       <c r="S7" t="s">
         <v>113</v>
       </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
       <c r="Y7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
@@ -1882,17 +1984,23 @@
       <c r="S8" t="s">
         <v>114</v>
       </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" t="s">
+        <v>50</v>
+      </c>
       <c r="Y8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
@@ -1926,17 +2034,23 @@
       <c r="S9" t="s">
         <v>114</v>
       </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
       <c r="Y9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
@@ -1970,17 +2084,23 @@
       <c r="S10" t="s">
         <v>112</v>
       </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>52</v>
+      </c>
       <c r="Y10" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
@@ -2014,17 +2134,23 @@
       <c r="S11" t="s">
         <v>114</v>
       </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
+      </c>
       <c r="Y11" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
@@ -2058,17 +2184,23 @@
       <c r="S12" t="s">
         <v>112</v>
       </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>24</v>
+      </c>
       <c r="Y12" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
@@ -2102,17 +2234,23 @@
       <c r="S13" t="s">
         <v>113</v>
       </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>42</v>
+      </c>
       <c r="Y13" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
@@ -2146,17 +2284,23 @@
       <c r="S14" t="s">
         <v>114</v>
       </c>
+      <c r="T14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14" t="s">
+        <v>86</v>
+      </c>
       <c r="Y14" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
@@ -2190,17 +2334,23 @@
       <c r="S15" t="s">
         <v>113</v>
       </c>
+      <c r="T15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>91</v>
+      </c>
       <c r="Y15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
@@ -2234,17 +2384,23 @@
       <c r="S16" t="s">
         <v>112</v>
       </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X16" t="s">
+        <v>77</v>
+      </c>
       <c r="Y16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
@@ -2278,17 +2434,23 @@
       <c r="S17" t="s">
         <v>112</v>
       </c>
+      <c r="T17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" t="s">
+        <v>85</v>
+      </c>
       <c r="Y17" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
@@ -2322,17 +2484,23 @@
       <c r="S18" t="s">
         <v>113</v>
       </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" t="s">
+        <v>112</v>
+      </c>
+      <c r="X18" t="s">
+        <v>38</v>
+      </c>
       <c r="Y18" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
@@ -2366,17 +2534,23 @@
       <c r="S19" t="s">
         <v>114</v>
       </c>
+      <c r="T19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" t="s">
+        <v>114</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
       <c r="Y19" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
@@ -2410,17 +2584,23 @@
       <c r="S20" t="s">
         <v>114</v>
       </c>
+      <c r="T20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" t="s">
+        <v>76</v>
+      </c>
       <c r="Y20" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -2454,17 +2634,23 @@
       <c r="S21" t="s">
         <v>114</v>
       </c>
+      <c r="T21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X21" t="s">
+        <v>84</v>
+      </c>
       <c r="Y21" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
@@ -2498,17 +2684,23 @@
       <c r="S22" t="s">
         <v>113</v>
       </c>
+      <c r="T22" t="s">
+        <v>126</v>
+      </c>
+      <c r="U22" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22" t="s">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
@@ -2542,17 +2734,23 @@
       <c r="S23" t="s">
         <v>113</v>
       </c>
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s">
+        <v>113</v>
+      </c>
+      <c r="X23" t="s">
+        <v>61</v>
+      </c>
       <c r="Y23" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
@@ -2586,17 +2784,23 @@
       <c r="S24" t="s">
         <v>113</v>
       </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>113</v>
+      </c>
+      <c r="X24" t="s">
+        <v>89</v>
+      </c>
       <c r="Y24" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
@@ -2630,17 +2834,23 @@
       <c r="S25" t="s">
         <v>114</v>
       </c>
+      <c r="T25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" t="s">
+        <v>114</v>
+      </c>
+      <c r="X25" t="s">
+        <v>93</v>
+      </c>
       <c r="Y25" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
@@ -2674,17 +2884,23 @@
       <c r="S26" t="s">
         <v>112</v>
       </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>112</v>
+      </c>
+      <c r="X26" t="s">
+        <v>82</v>
+      </c>
       <c r="Y26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
@@ -2718,17 +2934,23 @@
       <c r="S27" t="s">
         <v>113</v>
       </c>
+      <c r="T27" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27" t="s">
+        <v>112</v>
+      </c>
+      <c r="X27" t="s">
+        <v>58</v>
+      </c>
       <c r="Y27" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
@@ -2762,17 +2984,23 @@
       <c r="S28" t="s">
         <v>113</v>
       </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>113</v>
+      </c>
+      <c r="X28" t="s">
+        <v>54</v>
+      </c>
       <c r="Y28" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
@@ -2806,17 +3034,23 @@
       <c r="S29" t="s">
         <v>112</v>
       </c>
+      <c r="T29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s">
+        <v>113</v>
+      </c>
+      <c r="X29" t="s">
+        <v>78</v>
+      </c>
       <c r="Y29" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
@@ -2850,17 +3084,23 @@
       <c r="S30" t="s">
         <v>112</v>
       </c>
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" t="s">
+        <v>113</v>
+      </c>
+      <c r="X30" t="s">
+        <v>48</v>
+      </c>
       <c r="Y30" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -2894,17 +3134,23 @@
       <c r="S31" t="s">
         <v>114</v>
       </c>
+      <c r="T31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" t="s">
+        <v>114</v>
+      </c>
+      <c r="X31" t="s">
+        <v>87</v>
+      </c>
       <c r="Y31" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
@@ -2938,17 +3184,23 @@
       <c r="S32" t="s">
         <v>112</v>
       </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>113</v>
+      </c>
+      <c r="X32" t="s">
+        <v>39</v>
+      </c>
       <c r="Y32" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
@@ -2982,17 +3234,23 @@
       <c r="S33" t="s">
         <v>113</v>
       </c>
+      <c r="T33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>113</v>
+      </c>
+      <c r="X33" t="s">
+        <v>32</v>
+      </c>
       <c r="Y33" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="Z33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
@@ -3026,17 +3284,23 @@
       <c r="S34" t="s">
         <v>112</v>
       </c>
+      <c r="T34" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34" t="s">
+        <v>112</v>
+      </c>
+      <c r="X34" t="s">
+        <v>63</v>
+      </c>
       <c r="Y34" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Z34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
@@ -3070,17 +3334,23 @@
       <c r="S35" t="s">
         <v>114</v>
       </c>
+      <c r="T35" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" t="s">
+        <v>34</v>
+      </c>
       <c r="Y35" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
@@ -3114,17 +3384,23 @@
       <c r="S36" t="s">
         <v>113</v>
       </c>
+      <c r="T36" t="s">
+        <v>18</v>
+      </c>
+      <c r="U36" t="s">
+        <v>112</v>
+      </c>
+      <c r="X36" t="s">
+        <v>31</v>
+      </c>
       <c r="Y36" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
@@ -3158,17 +3434,23 @@
       <c r="S37" t="s">
         <v>112</v>
       </c>
+      <c r="T37" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" t="s">
+        <v>112</v>
+      </c>
+      <c r="X37" t="s">
+        <v>29</v>
+      </c>
       <c r="Y37" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
@@ -3199,17 +3481,23 @@
       <c r="S38" t="s">
         <v>113</v>
       </c>
+      <c r="T38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" t="s">
+        <v>113</v>
+      </c>
+      <c r="X38" t="s">
+        <v>30</v>
+      </c>
       <c r="Y38" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>24</v>
       </c>
@@ -3237,17 +3525,23 @@
       <c r="S39" t="s">
         <v>112</v>
       </c>
+      <c r="T39" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" t="s">
+        <v>113</v>
+      </c>
+      <c r="X39" t="s">
+        <v>72</v>
+      </c>
       <c r="Y39" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>25</v>
       </c>
@@ -3275,17 +3569,23 @@
       <c r="S40" t="s">
         <v>112</v>
       </c>
+      <c r="T40" t="s">
+        <v>17</v>
+      </c>
+      <c r="U40" t="s">
+        <v>112</v>
+      </c>
+      <c r="X40" t="s">
+        <v>94</v>
+      </c>
       <c r="Y40" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>46</v>
       </c>
@@ -3313,17 +3613,23 @@
       <c r="S41" t="s">
         <v>114</v>
       </c>
+      <c r="T41" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X41" t="s">
+        <v>65</v>
+      </c>
       <c r="Y41" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>47</v>
       </c>
@@ -3351,17 +3657,23 @@
       <c r="S42" t="s">
         <v>113</v>
       </c>
+      <c r="T42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" t="s">
+        <v>113</v>
+      </c>
+      <c r="X42" t="s">
+        <v>51</v>
+      </c>
       <c r="Y42" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K43" t="s">
         <v>81</v>
       </c>
@@ -3389,17 +3701,23 @@
       <c r="S43" t="s">
         <v>114</v>
       </c>
+      <c r="T43" t="s">
+        <v>126</v>
+      </c>
+      <c r="U43" t="s">
+        <v>114</v>
+      </c>
+      <c r="X43" t="s">
+        <v>109</v>
+      </c>
       <c r="Y43" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K44" t="s">
         <v>82</v>
       </c>
@@ -3427,17 +3745,23 @@
       <c r="S44" t="s">
         <v>112</v>
       </c>
+      <c r="T44" t="s">
+        <v>17</v>
+      </c>
+      <c r="U44" t="s">
+        <v>112</v>
+      </c>
+      <c r="X44" t="s">
+        <v>83</v>
+      </c>
       <c r="Y44" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K45" t="s">
         <v>83</v>
       </c>
@@ -3465,17 +3789,23 @@
       <c r="S45" t="s">
         <v>112</v>
       </c>
+      <c r="T45" t="s">
+        <v>19</v>
+      </c>
+      <c r="U45" t="s">
+        <v>113</v>
+      </c>
+      <c r="X45" t="s">
+        <v>92</v>
+      </c>
       <c r="Y45" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>31</v>
       </c>
@@ -3503,17 +3833,23 @@
       <c r="S46" t="s">
         <v>114</v>
       </c>
+      <c r="T46" t="s">
+        <v>126</v>
+      </c>
+      <c r="U46" t="s">
+        <v>114</v>
+      </c>
+      <c r="X46" t="s">
+        <v>80</v>
+      </c>
       <c r="Y46" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
         <v>98</v>
       </c>
@@ -3541,17 +3877,23 @@
       <c r="S47" t="s">
         <v>114</v>
       </c>
+      <c r="T47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" t="s">
+        <v>114</v>
+      </c>
+      <c r="X47" t="s">
+        <v>53</v>
+      </c>
       <c r="Y47" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>48</v>
       </c>
@@ -3579,17 +3921,23 @@
       <c r="S48" t="s">
         <v>113</v>
       </c>
+      <c r="T48" t="s">
+        <v>19</v>
+      </c>
+      <c r="U48" t="s">
+        <v>113</v>
+      </c>
+      <c r="X48" t="s">
+        <v>79</v>
+      </c>
       <c r="Y48" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>103</v>
       </c>
@@ -3617,17 +3965,23 @@
       <c r="S49" t="s">
         <v>114</v>
       </c>
+      <c r="T49" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" t="s">
+        <v>114</v>
+      </c>
+      <c r="X49" t="s">
+        <v>75</v>
+      </c>
       <c r="Y49" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>104</v>
       </c>
@@ -3655,17 +4009,23 @@
       <c r="S50" t="s">
         <v>113</v>
       </c>
+      <c r="T50" t="s">
+        <v>126</v>
+      </c>
+      <c r="U50" t="s">
+        <v>114</v>
+      </c>
+      <c r="X50" t="s">
+        <v>47</v>
+      </c>
       <c r="Y50" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>49</v>
       </c>
@@ -3693,17 +4053,23 @@
       <c r="S51" t="s">
         <v>114</v>
       </c>
+      <c r="T51" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" t="s">
+        <v>114</v>
+      </c>
+      <c r="X51" t="s">
+        <v>56</v>
+      </c>
       <c r="Y51" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
         <v>84</v>
       </c>
@@ -3731,17 +4097,23 @@
       <c r="S52" t="s">
         <v>112</v>
       </c>
+      <c r="T52" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" t="s">
+        <v>113</v>
+      </c>
+      <c r="X52" t="s">
+        <v>134</v>
+      </c>
       <c r="Y52" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>32</v>
       </c>
@@ -3769,17 +4141,23 @@
       <c r="S53" t="s">
         <v>113</v>
       </c>
+      <c r="T53" t="s">
+        <v>126</v>
+      </c>
+      <c r="U53" t="s">
+        <v>114</v>
+      </c>
+      <c r="X53" t="s">
+        <v>69</v>
+      </c>
       <c r="Y53" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>85</v>
       </c>
@@ -3807,17 +4185,23 @@
       <c r="S54" t="s">
         <v>113</v>
       </c>
+      <c r="T54" t="s">
+        <v>126</v>
+      </c>
+      <c r="U54" t="s">
+        <v>114</v>
+      </c>
+      <c r="X54" t="s">
+        <v>105</v>
+      </c>
       <c r="Y54" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>50</v>
       </c>
@@ -3845,17 +4229,23 @@
       <c r="S55" t="s">
         <v>112</v>
       </c>
+      <c r="T55" t="s">
+        <v>18</v>
+      </c>
+      <c r="U55" t="s">
+        <v>112</v>
+      </c>
+      <c r="X55" t="s">
+        <v>70</v>
+      </c>
       <c r="Y55" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>33</v>
       </c>
@@ -3883,17 +4273,23 @@
       <c r="S56" t="s">
         <v>114</v>
       </c>
+      <c r="T56" t="s">
+        <v>23</v>
+      </c>
+      <c r="U56" t="s">
+        <v>115</v>
+      </c>
+      <c r="X56" t="s">
+        <v>101</v>
+      </c>
       <c r="Y56" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K57" t="s">
         <v>105</v>
       </c>
@@ -3921,17 +4317,23 @@
       <c r="S57" t="s">
         <v>113</v>
       </c>
+      <c r="T57" t="s">
+        <v>126</v>
+      </c>
+      <c r="U57" t="s">
+        <v>114</v>
+      </c>
+      <c r="X57" t="s">
+        <v>107</v>
+      </c>
       <c r="Y57" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>106</v>
       </c>
@@ -3959,17 +4361,23 @@
       <c r="S58" t="s">
         <v>113</v>
       </c>
+      <c r="T58" t="s">
+        <v>126</v>
+      </c>
+      <c r="U58" t="s">
+        <v>114</v>
+      </c>
+      <c r="X58" t="s">
+        <v>106</v>
+      </c>
       <c r="Y58" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>69</v>
       </c>
@@ -3997,17 +4405,23 @@
       <c r="S59" t="s">
         <v>113</v>
       </c>
+      <c r="T59" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s">
+        <v>113</v>
+      </c>
+      <c r="X59" t="s">
+        <v>104</v>
+      </c>
       <c r="Y59" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>86</v>
       </c>
@@ -4035,17 +4449,23 @@
       <c r="S60" t="s">
         <v>112</v>
       </c>
+      <c r="T60" t="s">
+        <v>18</v>
+      </c>
+      <c r="U60" t="s">
+        <v>112</v>
+      </c>
+      <c r="X60" t="s">
+        <v>99</v>
+      </c>
       <c r="Y60" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="11:27" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>70</v>
       </c>
@@ -4073,17 +4493,23 @@
       <c r="S61" t="s">
         <v>113</v>
       </c>
+      <c r="T61" t="s">
+        <v>126</v>
+      </c>
+      <c r="U61" t="s">
+        <v>114</v>
+      </c>
+      <c r="X61" t="s">
+        <v>95</v>
+      </c>
       <c r="Y61" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="Z61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K62" t="s">
         <v>87</v>
       </c>
@@ -4111,17 +4537,23 @@
       <c r="S62" t="s">
         <v>112</v>
       </c>
+      <c r="T62" t="s">
+        <v>18</v>
+      </c>
+      <c r="U62" t="s">
+        <v>112</v>
+      </c>
+      <c r="X62" t="s">
+        <v>55</v>
+      </c>
       <c r="Y62" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="Z62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
         <v>34</v>
       </c>
@@ -4149,17 +4581,23 @@
       <c r="S63" t="s">
         <v>113</v>
       </c>
+      <c r="T63" t="s">
+        <v>126</v>
+      </c>
+      <c r="U63" t="s">
+        <v>114</v>
+      </c>
+      <c r="X63" t="s">
+        <v>36</v>
+      </c>
       <c r="Y63" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="Z63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K64" t="s">
         <v>51</v>
       </c>
@@ -4187,17 +4625,23 @@
       <c r="S64" t="s">
         <v>113</v>
       </c>
+      <c r="T64" t="s">
+        <v>18</v>
+      </c>
+      <c r="U64" t="s">
+        <v>112</v>
+      </c>
+      <c r="X64" t="s">
+        <v>49</v>
+      </c>
       <c r="Y64" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="Z64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K65" t="s">
         <v>52</v>
       </c>
@@ -4225,17 +4669,23 @@
       <c r="S65" t="s">
         <v>112</v>
       </c>
+      <c r="T65" t="s">
+        <v>17</v>
+      </c>
+      <c r="U65" t="s">
+        <v>112</v>
+      </c>
+      <c r="X65" t="s">
+        <v>66</v>
+      </c>
       <c r="Y65" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="Z65" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K66" t="s">
         <v>53</v>
       </c>
@@ -4263,17 +4713,23 @@
       <c r="S66" t="s">
         <v>113</v>
       </c>
+      <c r="T66" t="s">
+        <v>18</v>
+      </c>
+      <c r="U66" t="s">
+        <v>112</v>
+      </c>
+      <c r="X66" t="s">
+        <v>73</v>
+      </c>
       <c r="Y66" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="Z66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K67" t="s">
         <v>88</v>
       </c>
@@ -4301,17 +4757,23 @@
       <c r="S67" t="s">
         <v>114</v>
       </c>
+      <c r="T67" t="s">
+        <v>23</v>
+      </c>
+      <c r="U67" t="s">
+        <v>115</v>
+      </c>
+      <c r="X67" t="s">
+        <v>103</v>
+      </c>
       <c r="Y67" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="Z67" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K68" t="s">
         <v>89</v>
       </c>
@@ -4339,17 +4801,23 @@
       <c r="S68" t="s">
         <v>112</v>
       </c>
+      <c r="T68" t="s">
+        <v>19</v>
+      </c>
+      <c r="U68" t="s">
+        <v>113</v>
+      </c>
+      <c r="X68" t="s">
+        <v>97</v>
+      </c>
       <c r="Y68" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="Z68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K69" t="s">
         <v>99</v>
       </c>
@@ -4377,17 +4845,23 @@
       <c r="S69" t="s">
         <v>113</v>
       </c>
+      <c r="T69" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s">
+        <v>113</v>
+      </c>
+      <c r="X69" t="s">
+        <v>64</v>
+      </c>
       <c r="Y69" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="Z69" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K70" t="s">
         <v>36</v>
       </c>
@@ -4415,17 +4889,23 @@
       <c r="S70" t="s">
         <v>114</v>
       </c>
+      <c r="T70" t="s">
+        <v>23</v>
+      </c>
+      <c r="U70" t="s">
+        <v>115</v>
+      </c>
+      <c r="X70" t="s">
+        <v>108</v>
+      </c>
       <c r="Y70" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="Z70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K71" t="s">
         <v>100</v>
       </c>
@@ -4453,17 +4933,23 @@
       <c r="S71" t="s">
         <v>115</v>
       </c>
+      <c r="T71" t="s">
+        <v>23</v>
+      </c>
+      <c r="U71" t="s">
+        <v>115</v>
+      </c>
+      <c r="X71" t="s">
+        <v>43</v>
+      </c>
       <c r="Y71" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="Z71" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K72" t="s">
         <v>54</v>
       </c>
@@ -4491,17 +4977,23 @@
       <c r="S72" t="s">
         <v>112</v>
       </c>
+      <c r="T72" t="s">
+        <v>18</v>
+      </c>
+      <c r="U72" t="s">
+        <v>112</v>
+      </c>
+      <c r="X72" t="s">
+        <v>98</v>
+      </c>
       <c r="Y72" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="Z72" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K73" t="s">
         <v>35</v>
       </c>
@@ -4529,17 +5021,23 @@
       <c r="S73" t="s">
         <v>113</v>
       </c>
+      <c r="T73" t="s">
+        <v>19</v>
+      </c>
+      <c r="U73" t="s">
+        <v>113</v>
+      </c>
+      <c r="X73" t="s">
+        <v>46</v>
+      </c>
       <c r="Y73" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="Z73" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K74" t="s">
         <v>55</v>
       </c>
@@ -4567,17 +5065,23 @@
       <c r="S74" t="s">
         <v>114</v>
       </c>
+      <c r="T74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U74" t="s">
+        <v>114</v>
+      </c>
+      <c r="X74" t="s">
+        <v>81</v>
+      </c>
       <c r="Y74" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Z74" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K75" t="s">
         <v>71</v>
       </c>
@@ -4605,17 +5109,23 @@
       <c r="S75" t="s">
         <v>114</v>
       </c>
+      <c r="T75" t="s">
+        <v>23</v>
+      </c>
+      <c r="U75" t="s">
+        <v>115</v>
+      </c>
+      <c r="X75" t="s">
+        <v>40</v>
+      </c>
       <c r="Y75" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Z75" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K76" t="s">
         <v>90</v>
       </c>
@@ -4643,17 +5153,23 @@
       <c r="S76" t="s">
         <v>112</v>
       </c>
+      <c r="T76" t="s">
+        <v>18</v>
+      </c>
+      <c r="U76" t="s">
+        <v>112</v>
+      </c>
+      <c r="X76" t="s">
+        <v>33</v>
+      </c>
       <c r="Y76" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z76" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K77" t="s">
         <v>91</v>
       </c>
@@ -4681,17 +5197,23 @@
       <c r="S77" t="s">
         <v>112</v>
       </c>
+      <c r="T77" t="s">
+        <v>18</v>
+      </c>
+      <c r="U77" t="s">
+        <v>112</v>
+      </c>
+      <c r="X77" t="s">
+        <v>68</v>
+      </c>
       <c r="Y77" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="Z77" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K78" t="s">
         <v>92</v>
       </c>
@@ -4719,17 +5241,23 @@
       <c r="S78" t="s">
         <v>112</v>
       </c>
+      <c r="T78" t="s">
+        <v>18</v>
+      </c>
+      <c r="U78" t="s">
+        <v>112</v>
+      </c>
+      <c r="X78" t="s">
+        <v>59</v>
+      </c>
       <c r="Y78" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="Z78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K79" t="s">
         <v>109</v>
       </c>
@@ -4757,17 +5285,23 @@
       <c r="S79" t="s">
         <v>112</v>
       </c>
+      <c r="T79" t="s">
+        <v>17</v>
+      </c>
+      <c r="U79" t="s">
+        <v>112</v>
+      </c>
+      <c r="X79" t="s">
+        <v>27</v>
+      </c>
       <c r="Y79" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="Z79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K80" t="s">
         <v>56</v>
       </c>
@@ -4795,17 +5329,23 @@
       <c r="S80" t="s">
         <v>112</v>
       </c>
+      <c r="T80" t="s">
+        <v>18</v>
+      </c>
+      <c r="U80" t="s">
+        <v>112</v>
+      </c>
+      <c r="X80" t="s">
+        <v>26</v>
+      </c>
       <c r="Y80" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z80" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K81" t="s">
         <v>57</v>
       </c>
@@ -4833,17 +5373,23 @@
       <c r="S81" t="s">
         <v>113</v>
       </c>
+      <c r="T81" t="s">
+        <v>18</v>
+      </c>
+      <c r="U81" t="s">
+        <v>112</v>
+      </c>
+      <c r="X81" t="s">
+        <v>67</v>
+      </c>
       <c r="Y81" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="Z81" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K82" t="s">
         <v>58</v>
       </c>
@@ -4871,17 +5417,23 @@
       <c r="S82" t="s">
         <v>113</v>
       </c>
+      <c r="T82" t="s">
+        <v>19</v>
+      </c>
+      <c r="U82" t="s">
+        <v>113</v>
+      </c>
+      <c r="X82" t="s">
+        <v>102</v>
+      </c>
       <c r="Y82" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="Z82" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K83" t="s">
         <v>59</v>
       </c>
@@ -4909,17 +5461,23 @@
       <c r="S83" t="s">
         <v>114</v>
       </c>
+      <c r="T83" t="s">
+        <v>22</v>
+      </c>
+      <c r="U83" t="s">
+        <v>114</v>
+      </c>
+      <c r="X83" t="s">
+        <v>88</v>
+      </c>
       <c r="Y83" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="Z83" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K84" t="s">
         <v>101</v>
       </c>
@@ -4947,17 +5505,23 @@
       <c r="S84" t="s">
         <v>114</v>
       </c>
+      <c r="T84" t="s">
+        <v>126</v>
+      </c>
+      <c r="U84" t="s">
+        <v>114</v>
+      </c>
+      <c r="X84" t="s">
+        <v>60</v>
+      </c>
       <c r="Y84" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="Z84" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K85" t="s">
         <v>93</v>
       </c>
@@ -4985,17 +5549,23 @@
       <c r="S85" t="s">
         <v>113</v>
       </c>
+      <c r="T85" t="s">
+        <v>18</v>
+      </c>
+      <c r="U85" t="s">
+        <v>112</v>
+      </c>
+      <c r="X85" t="s">
+        <v>96</v>
+      </c>
       <c r="Y85" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="Z85" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K86" t="s">
         <v>72</v>
       </c>
@@ -5023,17 +5593,23 @@
       <c r="S86" t="s">
         <v>113</v>
       </c>
+      <c r="T86" t="s">
+        <v>21</v>
+      </c>
+      <c r="U86" t="s">
+        <v>114</v>
+      </c>
+      <c r="X86" t="s">
+        <v>100</v>
+      </c>
       <c r="Y86" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="Z86" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="11:27" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K87" t="s">
         <v>60</v>
       </c>
@@ -5061,17 +5637,23 @@
       <c r="S87" t="s">
         <v>115</v>
       </c>
+      <c r="T87" t="s">
+        <v>23</v>
+      </c>
+      <c r="U87" t="s">
+        <v>115</v>
+      </c>
+      <c r="X87" t="s">
+        <v>62</v>
+      </c>
       <c r="Y87" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="Z87" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA87" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="11:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K88" t="s">
         <v>61</v>
       </c>
@@ -5099,19 +5681,25 @@
       <c r="S88" t="s">
         <v>112</v>
       </c>
+      <c r="T88" t="s">
+        <v>18</v>
+      </c>
+      <c r="U88" t="s">
+        <v>112</v>
+      </c>
+      <c r="X88" t="s">
+        <v>71</v>
+      </c>
       <c r="Y88" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Z88" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="T2:V88">
-    <sortCondition ref="T1"/>
+  <sortState ref="Y2:AA88">
+    <sortCondition ref="Y1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5CBB1-B014-8841-A906-5A3C31EF34FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F411AF-5674-8748-8D1F-63815A9A205D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="980" windowWidth="25920" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="480" yWindow="3700" windowWidth="28160" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
     <sheet name="cell_gps" sheetId="6" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="142">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -455,12 +455,18 @@
   </si>
   <si>
     <t>color_april_28</t>
+  </si>
+  <si>
+    <t>moving_average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -507,13 +513,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,23 +836,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B65" sqref="A1:B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -853,7 +863,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -861,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -869,7 +879,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -877,7 +887,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -885,7 +895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -893,204 +903,304 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
       <c r="B8">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <f>AVERAGE(B2:B8)</f>
+        <v>4.4142857142857137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
       <c r="B9">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:C65" si="0">AVERAGE(B3:B9)</f>
+        <v>4.4428571428571431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
       <c r="B10">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9142857142857146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9142857142857141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
       <c r="B12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>3.7428571428571433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
       <c r="B13">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2428571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
       <c r="B14">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5285714285714289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
       <c r="B15">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
       <c r="B16">
         <v>-5.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.94285714285714295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
       <c r="B17">
         <v>-8.3000000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.0285714285714289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
       <c r="B18">
         <v>-11.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.7571428571428576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
       <c r="B19">
         <v>-20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
       <c r="B20">
         <v>-27.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>-11.114285714285716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
       <c r="B21">
         <v>-29.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>-15.085714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
       <c r="B22">
         <v>-32.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>-19.099999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
       <c r="B23">
         <v>-38.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.857142857142858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
       <c r="B24">
         <v>-25.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.357142857142858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
       <c r="B25">
         <v>-28.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>-28.814285714285717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
       <c r="B26">
         <v>-31.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>-30.500000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
       <c r="B27">
         <v>-25.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>-30.228571428571428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
       <c r="B28">
         <v>-30.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>-30.37142857142857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
       <c r="B29">
         <v>-54.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>-33.542857142857144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
       <c r="B30">
         <v>-54</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>-35.75714285714286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
       <c r="B31">
         <v>-34.200000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>-36.957142857142856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
       <c r="B32">
         <v>-35.1</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-37.885714285714286</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -1100,6 +1210,10 @@
       <c r="B33">
         <v>-37.9</v>
       </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>-38.75714285714286</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1108,6 +1222,10 @@
       <c r="B34">
         <v>-36.5</v>
       </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>-40.371428571428574</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1116,6 +1234,10 @@
       <c r="B35">
         <v>-51.6</v>
       </c>
+      <c r="C35" s="6">
+        <f t="shared" si="0"/>
+        <v>-43.442857142857143</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -1124,6 +1246,10 @@
       <c r="B36">
         <v>-47.8</v>
       </c>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>-42.442857142857143</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -1132,6 +1258,10 @@
       <c r="B37">
         <v>-50</v>
       </c>
+      <c r="C37" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.871428571428574</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -1140,6 +1270,10 @@
       <c r="B38">
         <v>-39.4</v>
       </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>-42.614285714285707</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1148,6 +1282,10 @@
       <c r="B39">
         <v>-38.6</v>
       </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>-43.114285714285714</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -1156,6 +1294,10 @@
       <c r="B40">
         <v>-35.299999999999997</v>
       </c>
+      <c r="C40" s="6">
+        <f t="shared" si="0"/>
+        <v>-42.74285714285714</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -1164,6 +1306,10 @@
       <c r="B41">
         <v>-30.9</v>
       </c>
+      <c r="C41" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.942857142857136</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1172,6 +1318,10 @@
       <c r="B42">
         <v>-38.200000000000003</v>
       </c>
+      <c r="C42" s="6">
+        <f t="shared" si="0"/>
+        <v>-40.028571428571425</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1180,6 +1330,10 @@
       <c r="B43">
         <v>-39.6</v>
       </c>
+      <c r="C43" s="6">
+        <f t="shared" si="0"/>
+        <v>-38.857142857142868</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1188,6 +1342,10 @@
       <c r="B44">
         <v>-68.2</v>
       </c>
+      <c r="C44" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.457142857142856</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -1195,6 +1353,10 @@
       </c>
       <c r="B45">
         <v>-40.4</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.6</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1214,6 +1376,10 @@
       <c r="B46">
         <v>-38.5</v>
       </c>
+      <c r="C46" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.585714285714289</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1232,6 +1398,10 @@
       <c r="B47">
         <v>-32.5</v>
       </c>
+      <c r="C47" s="6">
+        <f t="shared" si="0"/>
+        <v>-41.185714285714276</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1250,6 +1420,10 @@
       <c r="B48">
         <v>-26.2</v>
       </c>
+      <c r="C48" s="6">
+        <f t="shared" si="0"/>
+        <v>-40.514285714285712</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1268,6 +1442,10 @@
       <c r="B49">
         <v>-31.4</v>
       </c>
+      <c r="C49" s="6">
+        <f t="shared" si="0"/>
+        <v>-39.542857142857144</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1286,6 +1464,10 @@
       <c r="B50">
         <v>-32.6</v>
       </c>
+      <c r="C50" s="6">
+        <f t="shared" si="0"/>
+        <v>-38.542857142857144</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1304,6 +1486,10 @@
       <c r="B51">
         <v>-38.6</v>
       </c>
+      <c r="C51" s="6">
+        <f t="shared" si="0"/>
+        <v>-34.31428571428571</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1322,6 +1508,10 @@
       <c r="B52">
         <v>-32</v>
       </c>
+      <c r="C52" s="6">
+        <f t="shared" si="0"/>
+        <v>-33.114285714285714</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1340,6 +1530,10 @@
       <c r="B53">
         <v>-30.8</v>
       </c>
+      <c r="C53" s="6">
+        <f t="shared" si="0"/>
+        <v>-32.014285714285712</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1358,6 +1552,10 @@
       <c r="B54">
         <v>-22.3</v>
       </c>
+      <c r="C54" s="6">
+        <f t="shared" si="0"/>
+        <v>-30.557142857142857</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1376,6 +1574,10 @@
       <c r="B55">
         <v>-17.8</v>
       </c>
+      <c r="C55" s="6">
+        <f t="shared" si="0"/>
+        <v>-29.357142857142861</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1394,6 +1596,10 @@
       <c r="B56">
         <v>-23.8</v>
       </c>
+      <c r="C56" s="6">
+        <f t="shared" si="0"/>
+        <v>-28.271428571428576</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1412,6 +1618,10 @@
       <c r="B57">
         <v>-24.9</v>
       </c>
+      <c r="C57" s="6">
+        <f t="shared" si="0"/>
+        <v>-27.171428571428574</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -1420,6 +1630,10 @@
       <c r="B58">
         <v>-27.7</v>
       </c>
+      <c r="C58" s="6">
+        <f t="shared" si="0"/>
+        <v>-25.61428571428571</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -1428,6 +1642,10 @@
       <c r="B59">
         <v>-21.3</v>
       </c>
+      <c r="C59" s="6">
+        <f t="shared" si="0"/>
+        <v>-24.085714285714285</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -1436,6 +1654,10 @@
       <c r="B60">
         <v>-28.9</v>
       </c>
+      <c r="C60" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.814285714285717</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -1444,6 +1666,10 @@
       <c r="B61">
         <v>-19.399999999999999</v>
       </c>
+      <c r="C61" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.400000000000002</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -1452,6 +1678,10 @@
       <c r="B62">
         <v>-6.5</v>
       </c>
+      <c r="C62" s="6">
+        <f t="shared" si="0"/>
+        <v>-21.785714285714285</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -1460,6 +1690,10 @@
       <c r="B63">
         <v>-30.3</v>
       </c>
+      <c r="C63" s="6">
+        <f t="shared" si="0"/>
+        <v>-22.714285714285715</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -1468,17 +1702,31 @@
       <c r="B64">
         <v>-27.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.142857142857146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
       <c r="B65">
         <v>-29.5</v>
       </c>
+      <c r="C65" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8:C65" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1486,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G66" workbookViewId="0">
-      <selection activeCell="Z88" sqref="X1:Z88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20200407-cvshelter/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F411AF-5674-8748-8D1F-63815A9A205D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB151B-9792-1443-A272-2CE5166AEA38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3700" windowWidth="28160" windowHeight="19360" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
+    <workbookView xWindow="4720" yWindow="460" windowWidth="27820" windowHeight="19360" activeTab="1" xr2:uid="{BD60E304-CBB1-9E41-8DA5-071B57310460}"/>
   </bookViews>
   <sheets>
     <sheet name="traffic_volume" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="148">
   <si>
     <t>Source: Minnesota Department of Transportation, Metro Transit</t>
   </si>
@@ -439,25 +439,43 @@
     <t>Lac qui Parle</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>grade_april_21</t>
+  </si>
+  <si>
+    <t>color_april_21</t>
+  </si>
+  <si>
+    <t>grade_april_28</t>
+  </si>
+  <si>
+    <t>color_april_28</t>
+  </si>
+  <si>
+    <t>moving_average</t>
+  </si>
+  <si>
+    <t>grade_may_1</t>
+  </si>
+  <si>
+    <t>color_may_1</t>
+  </si>
+  <si>
+    <t>grade_may_3</t>
+  </si>
+  <si>
+    <t>color_may3</t>
+  </si>
+  <si>
     <t>grade</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>grade_april_21</t>
-  </si>
-  <si>
-    <t>color_april_21</t>
-  </si>
-  <si>
-    <t>grade_april_28</t>
-  </si>
-  <si>
-    <t>color_april_28</t>
-  </si>
-  <si>
-    <t>moving_average</t>
+    <t>grade_may9</t>
+  </si>
+  <si>
+    <t>color_may9</t>
   </si>
 </sst>
 </file>
@@ -836,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B9E56-6ED1-5D45-A9A4-7C5D482FA311}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +870,7 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +941,7 @@
         <v>11.1</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ref="C9:C65" si="0">AVERAGE(B3:B9)</f>
+        <f t="shared" ref="C9:C72" si="0">AVERAGE(B3:B9)</f>
         <v>4.4428571428571431</v>
       </c>
     </row>
@@ -1720,30 +1738,128 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B66">
+        <v>-23.6</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.728571428571428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B67">
+        <v>-28.1</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.61428571428571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B68">
+        <v>-22.7</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" si="0"/>
+        <v>-24.085714285714282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B69">
+        <v>-25.3</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.771428571428572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B70">
+        <v>-26.1</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.171428571428571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B71">
+        <v>-30.7</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.571428571428573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B72">
+        <v>-31.4</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="0"/>
+        <v>-26.842857142857145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B73">
+        <v>-20.9</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" ref="C73" si="1">AVERAGE(B67:B73)</f>
+        <v>-26.457142857142856</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C8:C65" formulaRange="1"/>
+    <ignoredError sqref="C8:C65 C66:C73" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B75DA68-CFEC-A043-AB95-E8CFFCED7B90}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="T66" workbookViewId="0">
+      <selection activeCell="AJ88" sqref="AH1:AJ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1754,61 +1870,82 @@
         <v>118</v>
       </c>
       <c r="F1" s="5">
+        <v>43953</v>
+      </c>
+      <c r="G1" s="5">
         <v>43950</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="J1" s="5">
         <v>43919</v>
       </c>
-      <c r="H1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>140</v>
+      <c r="W1" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -1818,62 +1955,83 @@
       <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
+        <v>-35</v>
+      </c>
+      <c r="G2" s="4">
         <v>-0.35</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
+        <v>-0.44</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-0.46</v>
+      </c>
+      <c r="J2" s="4">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="H2" s="4">
-        <v>-0.46</v>
-      </c>
-      <c r="I2" s="4">
-        <v>-0.44</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="Y2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
@@ -1883,62 +2041,83 @@
       <c r="E3" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
         <v>-0.1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
+        <v>-0.02</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="J3" s="4">
         <v>-0.35</v>
       </c>
-      <c r="H3" s="4">
-        <v>-0.18</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-0.02</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
-        <v>114</v>
-      </c>
       <c r="R3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>115</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>23</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>115</v>
       </c>
+      <c r="W3" t="s">
+        <v>23</v>
+      </c>
       <c r="X3" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Y3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43887</v>
       </c>
@@ -1948,62 +2127,83 @@
       <c r="E4" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
+        <v>112</v>
+      </c>
+      <c r="G4" s="4">
         <v>1.21</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="4">
         <v>-0.16</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
-        <v>113</v>
-      </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="Q4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" t="s">
         <v>20</v>
       </c>
-      <c r="S4" t="s">
-        <v>113</v>
-      </c>
       <c r="T4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="Y4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43888</v>
       </c>
@@ -2013,62 +2213,83 @@
       <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
+        <v>-39</v>
+      </c>
+      <c r="G5" s="4">
         <v>-0.52</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
+        <v>-0.51</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="J5" s="4">
         <v>-0.64</v>
       </c>
-      <c r="H5" s="4">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-0.51</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" t="s">
         <v>125</v>
       </c>
-      <c r="S5" t="s">
-        <v>113</v>
-      </c>
       <c r="T5" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" t="s">
-        <v>113</v>
+      <c r="V5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" t="s">
+        <v>125</v>
       </c>
       <c r="X5" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="Y5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43889</v>
       </c>
@@ -2078,62 +2299,83 @@
       <c r="E6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
+        <v>-29</v>
+      </c>
+      <c r="G6" s="4">
         <v>-0.33</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-0.37</v>
+      </c>
+      <c r="J6" s="4">
         <v>-0.38</v>
       </c>
-      <c r="H6" s="4">
-        <v>-0.37</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-0.36</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
-        <v>114</v>
-      </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" t="s">
         <v>22</v>
       </c>
-      <c r="U6" t="s">
-        <v>114</v>
+      <c r="V6" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6" t="s">
+        <v>126</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43890</v>
       </c>
@@ -2143,503 +2385,671 @@
       <c r="E7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.08</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.12</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="U7" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="Y7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43891</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
-        <v>113</v>
-      </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" t="s">
         <v>23</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>115</v>
       </c>
+      <c r="W8" t="s">
+        <v>126</v>
+      </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43892</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
-        <v>114</v>
-      </c>
       <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
       <c r="P9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T9" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U9" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V9" t="s">
+        <v>114</v>
+      </c>
+      <c r="W9" t="s">
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43893</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" t="s">
-        <v>112</v>
-      </c>
       <c r="R10" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V10" t="s">
+        <v>113</v>
+      </c>
+      <c r="W10" t="s">
+        <v>17</v>
       </c>
       <c r="X10" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
-        <v>113</v>
-      </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" t="s">
         <v>22</v>
       </c>
-      <c r="S11" t="s">
-        <v>114</v>
-      </c>
       <c r="T11" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" t="s">
         <v>22</v>
       </c>
-      <c r="U11" t="s">
-        <v>114</v>
+      <c r="V11" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" t="s">
+        <v>21</v>
       </c>
       <c r="X11" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43895</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S12" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T12" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U12" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V12" t="s">
+        <v>113</v>
+      </c>
+      <c r="W12" t="s">
+        <v>18</v>
       </c>
       <c r="X12" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43896</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>39</v>
       </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U13" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" t="s">
+        <v>18</v>
       </c>
       <c r="X13" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43897</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>40</v>
       </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" t="s">
-        <v>113</v>
-      </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T14" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U14" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V14" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" t="s">
+        <v>21</v>
       </c>
       <c r="X14" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Y14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43898</v>
       </c>
       <c r="B15">
         <v>-1</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>73</v>
       </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" t="s">
         <v>20</v>
       </c>
-      <c r="S15" t="s">
-        <v>113</v>
-      </c>
       <c r="T15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U15" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V15" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
       </c>
       <c r="X15" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="Y15" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="Z15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43899</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>115</v>
       </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q16" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T16" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="U16" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" t="s">
+        <v>18</v>
       </c>
       <c r="X16" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -2647,99 +3057,135 @@
       <c r="Z16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43900</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>41</v>
       </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
         <v>16</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>111</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>111</v>
       </c>
-      <c r="R17" t="s">
-        <v>17</v>
-      </c>
       <c r="S17" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T17" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U17" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V17" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" t="s">
+        <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="Y17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43901</v>
       </c>
       <c r="B18">
         <v>-2</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>75</v>
       </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q18" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S18" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="U18" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V18" t="s">
+        <v>112</v>
+      </c>
+      <c r="W18" t="s">
+        <v>19</v>
       </c>
       <c r="X18" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -2747,249 +3193,339 @@
       <c r="Z18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43902</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>96</v>
       </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" t="s">
-        <v>113</v>
-      </c>
       <c r="R19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S19" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T19" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U19" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
       </c>
       <c r="X19" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="Y19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43903</v>
       </c>
       <c r="B20">
         <v>-9</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" t="s">
-        <v>113</v>
-      </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R20" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="S20" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T20" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20" t="s">
         <v>22</v>
       </c>
-      <c r="U20" t="s">
-        <v>114</v>
+      <c r="V20" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
       </c>
       <c r="X20" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="Y20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
       <c r="B21">
         <v>-14</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
       <c r="N21" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="Q21" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U21" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V21" t="s">
+        <v>114</v>
+      </c>
+      <c r="W21" t="s">
+        <v>21</v>
       </c>
       <c r="X21" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Y21" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="Z21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43905</v>
       </c>
       <c r="B22">
         <v>-16</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>68</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>20</v>
       </c>
-      <c r="M22" t="s">
-        <v>113</v>
-      </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R22" t="s">
+        <v>114</v>
+      </c>
+      <c r="S22" t="s">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>113</v>
-      </c>
       <c r="T22" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U22" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V22" t="s">
+        <v>114</v>
+      </c>
+      <c r="W22" t="s">
+        <v>21</v>
       </c>
       <c r="X22" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Y22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43906</v>
       </c>
       <c r="B23">
         <v>-14</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>76</v>
       </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O23" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q23" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S23" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U23" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V23" t="s">
+        <v>113</v>
+      </c>
+      <c r="W23" t="s">
+        <v>18</v>
       </c>
       <c r="X23" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="Y23" t="s">
         <v>18</v>
@@ -2997,149 +3533,203 @@
       <c r="Z23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43907</v>
       </c>
       <c r="B24">
         <v>-17</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>77</v>
       </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
       <c r="M24" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O24" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q24" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R24" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" t="s">
         <v>20</v>
       </c>
-      <c r="S24" t="s">
-        <v>113</v>
-      </c>
       <c r="T24" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U24" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V24" t="s">
+        <v>113</v>
+      </c>
+      <c r="W24" t="s">
+        <v>18</v>
       </c>
       <c r="X24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="Y24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43908</v>
       </c>
       <c r="B25">
         <v>-26</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>108</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>115</v>
       </c>
-      <c r="N25" t="s">
-        <v>21</v>
-      </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="Q25" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="S25" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T25" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U25" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V25" t="s">
+        <v>114</v>
+      </c>
+      <c r="W25" t="s">
+        <v>126</v>
       </c>
       <c r="X25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH25" t="s">
         <v>93</v>
       </c>
-      <c r="Y25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AI25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43909</v>
       </c>
       <c r="B26">
         <v>-31</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>28</v>
       </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="O26" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q26" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R26" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S26" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T26" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U26" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V26" t="s">
+        <v>112</v>
+      </c>
+      <c r="W26" t="s">
+        <v>17</v>
       </c>
       <c r="X26" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="Y26" t="s">
         <v>18</v>
@@ -3147,49 +3737,67 @@
       <c r="Z26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43910</v>
       </c>
       <c r="B27">
         <v>-38</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>42</v>
       </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S27" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="U27" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V27" t="s">
+        <v>112</v>
+      </c>
+      <c r="W27" t="s">
+        <v>17</v>
       </c>
       <c r="X27" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s">
         <v>18</v>
@@ -3197,898 +3805,1240 @@
       <c r="Z27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43911</v>
       </c>
       <c r="B28">
         <v>-46</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>29</v>
       </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" t="s">
         <v>125</v>
       </c>
-      <c r="Q28" t="s">
-        <v>113</v>
-      </c>
       <c r="R28" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S28" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s">
+        <v>113</v>
+      </c>
+      <c r="U28" t="s">
         <v>20</v>
       </c>
-      <c r="U28" t="s">
-        <v>113</v>
+      <c r="V28" t="s">
+        <v>113</v>
+      </c>
+      <c r="W28" t="s">
+        <v>19</v>
       </c>
       <c r="X28" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Y28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43912</v>
       </c>
       <c r="B29">
         <v>-33</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="s">
-        <v>113</v>
-      </c>
       <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" t="s">
         <v>125</v>
       </c>
-      <c r="O29" t="s">
-        <v>113</v>
-      </c>
       <c r="P29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" t="s">
         <v>125</v>
       </c>
-      <c r="Q29" t="s">
-        <v>113</v>
-      </c>
       <c r="R29" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="S29" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" t="s">
         <v>20</v>
       </c>
-      <c r="U29" t="s">
-        <v>113</v>
+      <c r="V29" t="s">
+        <v>113</v>
+      </c>
+      <c r="W29" t="s">
+        <v>126</v>
       </c>
       <c r="X29" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="Z29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43913</v>
       </c>
       <c r="B30">
         <v>-30</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>78</v>
       </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P30" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q30" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R30" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="S30" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T30" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U30" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W30" t="s">
+        <v>18</v>
       </c>
       <c r="X30" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="Y30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
       <c r="B31">
         <v>-28</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>102</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="s">
-        <v>114</v>
-      </c>
       <c r="N31" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="P31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" t="s">
         <v>22</v>
       </c>
-      <c r="Q31" t="s">
-        <v>114</v>
-      </c>
       <c r="R31" t="s">
+        <v>114</v>
+      </c>
+      <c r="S31" t="s">
         <v>22</v>
       </c>
-      <c r="S31" t="s">
-        <v>114</v>
-      </c>
       <c r="T31" t="s">
+        <v>114</v>
+      </c>
+      <c r="U31" t="s">
         <v>22</v>
       </c>
-      <c r="U31" t="s">
-        <v>114</v>
+      <c r="V31" t="s">
+        <v>114</v>
+      </c>
+      <c r="W31" t="s">
+        <v>21</v>
       </c>
       <c r="X31" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="Y31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43915</v>
       </c>
       <c r="B32">
         <v>-32</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>30</v>
       </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O32" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" t="s">
         <v>125</v>
       </c>
-      <c r="Q32" t="s">
-        <v>113</v>
-      </c>
       <c r="R32" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="S32" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T32" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" t="s">
         <v>20</v>
       </c>
-      <c r="U32" t="s">
-        <v>113</v>
+      <c r="V32" t="s">
+        <v>113</v>
+      </c>
+      <c r="W32" t="s">
+        <v>19</v>
       </c>
       <c r="X32" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Y32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43916</v>
       </c>
       <c r="B33">
         <v>-34</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>79</v>
       </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R33" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S33" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U33" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V33" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" t="s">
+        <v>19</v>
       </c>
       <c r="X33" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="Y33" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43917</v>
       </c>
       <c r="B34">
         <v>-50</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>44</v>
       </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
       <c r="M34" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O34" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P34" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q34" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R34" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S34" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T34" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U34" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V34" t="s">
+        <v>112</v>
+      </c>
+      <c r="W34" t="s">
+        <v>18</v>
       </c>
       <c r="X34" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="Y34" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43918</v>
       </c>
       <c r="B35">
         <v>-80</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>97</v>
       </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
+        <v>114</v>
+      </c>
+      <c r="O35" t="s">
         <v>20</v>
       </c>
-      <c r="O35" t="s">
-        <v>113</v>
-      </c>
       <c r="P35" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q35" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R35" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S35" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T35" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U35" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V35" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" t="s">
+        <v>126</v>
       </c>
       <c r="X35" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43919</v>
       </c>
       <c r="B36">
         <v>-75</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>80</v>
       </c>
-      <c r="L36" t="s">
-        <v>17</v>
-      </c>
       <c r="M36" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="O36" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P36" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R36" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S36" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="U36" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V36" t="s">
+        <v>112</v>
+      </c>
+      <c r="W36" t="s">
+        <v>19</v>
       </c>
       <c r="X36" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43920</v>
       </c>
       <c r="B37">
         <v>-45</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>45</v>
       </c>
-      <c r="L37" t="s">
-        <v>19</v>
-      </c>
       <c r="M37" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P37" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q37" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R37" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="S37" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T37" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="U37" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37" t="s">
+        <v>17</v>
       </c>
       <c r="X37" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="Y37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43921</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>116</v>
       </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P38" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Q38" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R38" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S38" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U38" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38" t="s">
+        <v>19</v>
       </c>
       <c r="X38" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="Y38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
         <v>24</v>
       </c>
-      <c r="L39" t="s">
-        <v>17</v>
-      </c>
       <c r="M39" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P39" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q39" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R39" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="S39" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T39" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U39" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V39" t="s">
+        <v>113</v>
+      </c>
+      <c r="W39" t="s">
+        <v>17</v>
       </c>
       <c r="X39" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="Y39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K40" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>15</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>111</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>15</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>111</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>15</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>111</v>
       </c>
-      <c r="R40" t="s">
-        <v>17</v>
-      </c>
       <c r="S40" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="T40" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="U40" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V40" t="s">
+        <v>112</v>
+      </c>
+      <c r="W40" t="s">
+        <v>15</v>
       </c>
       <c r="X40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="Y40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
         <v>46</v>
       </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
       <c r="M41" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O41" t="s">
         <v>20</v>
       </c>
-      <c r="O41" t="s">
-        <v>113</v>
-      </c>
       <c r="P41" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" t="s">
-        <v>113</v>
-      </c>
       <c r="R41" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="S41" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T41" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U41" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V41" t="s">
+        <v>114</v>
+      </c>
+      <c r="W41" t="s">
+        <v>21</v>
       </c>
       <c r="X41" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="Y41" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
         <v>47</v>
       </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
       <c r="M42" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O42" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P42" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="Q42" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R42" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S42" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U42" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V42" t="s">
+        <v>113</v>
+      </c>
+      <c r="W42" t="s">
+        <v>19</v>
       </c>
       <c r="X42" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="Y42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
         <v>81</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
-        <v>114</v>
-      </c>
       <c r="N43" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O43" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P43" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q43" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" t="s">
-        <v>113</v>
-      </c>
       <c r="R43" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S43" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T43" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U43" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V43" t="s">
+        <v>114</v>
+      </c>
+      <c r="W43" t="s">
+        <v>21</v>
       </c>
       <c r="X43" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y43" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
         <v>82</v>
       </c>
-      <c r="L44" t="s">
-        <v>17</v>
-      </c>
       <c r="M44" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="O44" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q44" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>111</v>
       </c>
-      <c r="R44" t="s">
-        <v>18</v>
-      </c>
       <c r="S44" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T44" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="U44" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="V44" t="s">
+        <v>112</v>
+      </c>
+      <c r="W44" t="s">
+        <v>18</v>
       </c>
       <c r="X44" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
         <v>83</v>
       </c>
-      <c r="Y44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>17</v>
-      </c>
       <c r="M45" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="N45" t="s">
+        <v>112</v>
+      </c>
+      <c r="O45" t="s">
         <v>16</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>111</v>
       </c>
-      <c r="P45" t="s">
-        <v>18</v>
-      </c>
       <c r="Q45" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S45" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T45" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U45" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V45" t="s">
+        <v>113</v>
+      </c>
+      <c r="W45" t="s">
+        <v>19</v>
       </c>
       <c r="X45" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="Y45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
         <v>31</v>
       </c>
-      <c r="L46" t="s">
-        <v>21</v>
-      </c>
       <c r="M46" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N46" t="s">
+        <v>114</v>
+      </c>
+      <c r="O46" t="s">
         <v>20</v>
       </c>
-      <c r="O46" t="s">
-        <v>113</v>
-      </c>
       <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" t="s">
-        <v>113</v>
-      </c>
       <c r="R46" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S46" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T46" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U46" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V46" t="s">
+        <v>114</v>
+      </c>
+      <c r="W46" t="s">
+        <v>19</v>
       </c>
       <c r="X46" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y46" t="s">
         <v>19</v>
@@ -4096,483 +5046,681 @@
       <c r="Z46" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K47" t="s">
+      <c r="AA46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
         <v>98</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
-        <v>114</v>
-      </c>
       <c r="N47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O47" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q47" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S47" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T47" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U47" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V47" t="s">
+        <v>114</v>
+      </c>
+      <c r="W47" t="s">
+        <v>126</v>
       </c>
       <c r="X47" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Y47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
         <v>48</v>
       </c>
-      <c r="L48" t="s">
-        <v>21</v>
-      </c>
       <c r="M48" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="O48" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q48" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R48" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S48" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T48" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="U48" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V48" t="s">
+        <v>113</v>
+      </c>
+      <c r="W48" t="s">
+        <v>18</v>
       </c>
       <c r="X48" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Y48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
         <v>103</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
-        <v>114</v>
-      </c>
       <c r="N49" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O49" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P49" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q49" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" t="s">
-        <v>113</v>
-      </c>
       <c r="R49" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S49" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T49" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U49" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V49" t="s">
+        <v>114</v>
+      </c>
+      <c r="W49" t="s">
+        <v>126</v>
       </c>
       <c r="X49" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="Y49" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
         <v>104</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>22</v>
       </c>
-      <c r="M50" t="s">
-        <v>114</v>
-      </c>
       <c r="N50" t="s">
+        <v>114</v>
+      </c>
+      <c r="O50" t="s">
         <v>20</v>
       </c>
-      <c r="O50" t="s">
-        <v>113</v>
-      </c>
       <c r="P50" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" t="s">
-        <v>113</v>
-      </c>
       <c r="R50" t="s">
+        <v>113</v>
+      </c>
+      <c r="S50" t="s">
         <v>20</v>
       </c>
-      <c r="S50" t="s">
-        <v>113</v>
-      </c>
       <c r="T50" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U50" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V50" t="s">
+        <v>114</v>
+      </c>
+      <c r="W50" t="s">
+        <v>20</v>
       </c>
       <c r="X50" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="Y50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="51" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K51" t="s">
+      <c r="AA50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
         <v>49</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
-        <v>114</v>
-      </c>
       <c r="N51" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q51" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" t="s">
-        <v>113</v>
-      </c>
       <c r="R51" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="S51" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="T51" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="U51" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="V51" t="s">
+        <v>114</v>
+      </c>
+      <c r="W51" t="s">
+        <v>126</v>
       </c>
       <c r="X51" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="Y51" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="Z51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
         <v>84</v>
       </c>
-      <c r="L52" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N52" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="O52" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="P52" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q52" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R52" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S52" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T52" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="U52" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="V52" t="s">
+        <v>113</v>
+      </c>
+      <c r="W52" t="s">
+        <v>18</v>
       </c>
       <c r="X52" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="Y52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
         <v>32</v>
       </c>
-      <c r="L53" t="s">
-        <v>19</v>
-      </c>
       <c r="M53" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N53" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O53" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P53" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q53" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="R53" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="S53" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T53" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U53" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V53" t="s">
+        <v>114</v>
+      </c>
+      <c r="W53" t="s">
+        <v>125</v>
       </c>
       <c r="X53" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="Y53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>85</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" t="s">
+        <v>115</v>
+      </c>
+      <c r="O54" t="s">
         <v>20</v>
       </c>
-      <c r="Z53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K54" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="P54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" t="s">
+        <v>113</v>
+      </c>
+      <c r="S54" t="s">
+        <v>125</v>
+      </c>
+      <c r="T54" t="s">
+        <v>113</v>
+      </c>
+      <c r="U54" t="s">
+        <v>126</v>
+      </c>
+      <c r="V54" t="s">
+        <v>114</v>
+      </c>
+      <c r="W54" t="s">
+        <v>18</v>
+      </c>
+      <c r="X54" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>113</v>
+      </c>
+      <c r="O55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" t="s">
+        <v>111</v>
+      </c>
+      <c r="S55" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" t="s">
+        <v>112</v>
+      </c>
+      <c r="U55" t="s">
+        <v>18</v>
+      </c>
+      <c r="V55" t="s">
+        <v>112</v>
+      </c>
+      <c r="W55" t="s">
+        <v>17</v>
+      </c>
+      <c r="X55" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>113</v>
+      </c>
+      <c r="O56" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56" t="s">
+        <v>113</v>
+      </c>
+      <c r="S56" t="s">
+        <v>126</v>
+      </c>
+      <c r="T56" t="s">
+        <v>114</v>
+      </c>
+      <c r="U56" t="s">
         <v>23</v>
       </c>
-      <c r="M54" t="s">
+      <c r="V56" t="s">
         <v>115</v>
       </c>
-      <c r="N54" t="s">
+      <c r="W56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>114</v>
+      </c>
+      <c r="O57" t="s">
         <v>20</v>
       </c>
-      <c r="O54" t="s">
-        <v>113</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="P57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q57" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" t="s">
-        <v>113</v>
-      </c>
-      <c r="R54" t="s">
-        <v>125</v>
-      </c>
-      <c r="S54" t="s">
-        <v>113</v>
-      </c>
-      <c r="T54" t="s">
-        <v>126</v>
-      </c>
-      <c r="U54" t="s">
-        <v>114</v>
-      </c>
-      <c r="X54" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y54" t="s">
+      <c r="R57" t="s">
+        <v>113</v>
+      </c>
+      <c r="S57" t="s">
         <v>20</v>
       </c>
-      <c r="Z54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K55" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" t="s">
-        <v>113</v>
-      </c>
-      <c r="N55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" t="s">
-        <v>112</v>
-      </c>
-      <c r="P55" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>111</v>
-      </c>
-      <c r="R55" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" t="s">
-        <v>112</v>
-      </c>
-      <c r="T55" t="s">
-        <v>18</v>
-      </c>
-      <c r="U55" t="s">
-        <v>112</v>
-      </c>
-      <c r="X55" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y55" t="s">
+      <c r="T57" t="s">
+        <v>113</v>
+      </c>
+      <c r="U57" t="s">
+        <v>126</v>
+      </c>
+      <c r="V57" t="s">
+        <v>114</v>
+      </c>
+      <c r="W57" t="s">
         <v>20</v>
       </c>
-      <c r="Z55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K56" t="s">
-        <v>33</v>
-      </c>
-      <c r="L56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" t="s">
-        <v>113</v>
-      </c>
-      <c r="N56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O56" t="s">
-        <v>113</v>
-      </c>
-      <c r="P56" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>113</v>
-      </c>
-      <c r="R56" t="s">
-        <v>126</v>
-      </c>
-      <c r="S56" t="s">
-        <v>114</v>
-      </c>
-      <c r="T56" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" t="s">
-        <v>115</v>
-      </c>
-      <c r="X56" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K57" t="s">
-        <v>105</v>
-      </c>
-      <c r="L57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" t="s">
-        <v>114</v>
-      </c>
-      <c r="N57" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" t="s">
-        <v>113</v>
-      </c>
-      <c r="P57" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>113</v>
-      </c>
-      <c r="R57" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" t="s">
-        <v>113</v>
-      </c>
-      <c r="T57" t="s">
-        <v>126</v>
-      </c>
-      <c r="U57" t="s">
-        <v>114</v>
-      </c>
       <c r="X57" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Y57" t="s">
         <v>20</v>
@@ -4580,87 +5728,123 @@
       <c r="Z57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K58" t="s">
+      <c r="AA57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
         <v>106</v>
       </c>
-      <c r="L58" t="s">
-        <v>19</v>
-      </c>
       <c r="M58" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N58" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O58" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P58" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q58" t="s">
         <v>125</v>
       </c>
-      <c r="Q58" t="s">
-        <v>113</v>
-      </c>
       <c r="R58" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="S58" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="T58" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="U58" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V58" t="s">
+        <v>114</v>
+      </c>
+      <c r="W58" t="s">
+        <v>20</v>
       </c>
       <c r="X58" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>114</v>
+      </c>
+      <c r="O59" t="s">
         <v>20</v>
       </c>
-      <c r="Z58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K59" t="s">
-        <v>69</v>
-      </c>
-      <c r="L59" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" t="s">
-        <v>114</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" t="s">
+        <v>113</v>
+      </c>
+      <c r="S59" t="s">
         <v>20</v>
       </c>
-      <c r="O59" t="s">
-        <v>113</v>
-      </c>
-      <c r="P59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>113</v>
-      </c>
-      <c r="R59" t="s">
+      <c r="T59" t="s">
+        <v>113</v>
+      </c>
+      <c r="U59" t="s">
         <v>20</v>
       </c>
-      <c r="S59" t="s">
-        <v>113</v>
-      </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
+        <v>113</v>
+      </c>
+      <c r="W59" t="s">
         <v>20</v>
       </c>
-      <c r="U59" t="s">
-        <v>113</v>
-      </c>
       <c r="X59" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Y59" t="s">
         <v>20</v>
@@ -4668,1055 +5852,1487 @@
       <c r="Z59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K60" t="s">
+      <c r="AA59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
         <v>86</v>
       </c>
-      <c r="L60" t="s">
-        <v>21</v>
-      </c>
       <c r="M60" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O60" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P60" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q60" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R60" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S60" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T60" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U60" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V60" t="s">
+        <v>112</v>
+      </c>
+      <c r="W60" t="s">
+        <v>17</v>
       </c>
       <c r="X60" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>70</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" t="s">
+        <v>112</v>
+      </c>
+      <c r="O61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" t="s">
+        <v>113</v>
+      </c>
+      <c r="S61" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s">
+        <v>113</v>
+      </c>
+      <c r="U61" t="s">
+        <v>126</v>
+      </c>
+      <c r="V61" t="s">
+        <v>114</v>
+      </c>
+      <c r="W61" t="s">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" t="s">
+        <v>113</v>
+      </c>
+      <c r="O62" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R62" t="s">
+        <v>112</v>
+      </c>
+      <c r="S62" t="s">
+        <v>18</v>
+      </c>
+      <c r="T62" t="s">
+        <v>112</v>
+      </c>
+      <c r="U62" t="s">
+        <v>18</v>
+      </c>
+      <c r="V62" t="s">
+        <v>112</v>
+      </c>
+      <c r="W62" t="s">
+        <v>18</v>
+      </c>
+      <c r="X62" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" t="s">
+        <v>112</v>
+      </c>
+      <c r="O63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63" t="s">
+        <v>113</v>
+      </c>
+      <c r="S63" t="s">
+        <v>19</v>
+      </c>
+      <c r="T63" t="s">
+        <v>113</v>
+      </c>
+      <c r="U63" t="s">
+        <v>126</v>
+      </c>
+      <c r="V63" t="s">
+        <v>114</v>
+      </c>
+      <c r="W63" t="s">
+        <v>19</v>
+      </c>
+      <c r="X63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M64" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O64" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R64" t="s">
+        <v>112</v>
+      </c>
+      <c r="S64" t="s">
+        <v>19</v>
+      </c>
+      <c r="T64" t="s">
+        <v>113</v>
+      </c>
+      <c r="U64" t="s">
+        <v>18</v>
+      </c>
+      <c r="V64" t="s">
+        <v>112</v>
+      </c>
+      <c r="W64" t="s">
+        <v>19</v>
+      </c>
+      <c r="X64" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH64" t="s">
         <v>99</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="AI64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>114</v>
+      </c>
+      <c r="O65" t="s">
+        <v>17</v>
+      </c>
+      <c r="P65" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>18</v>
+      </c>
+      <c r="R65" t="s">
+        <v>112</v>
+      </c>
+      <c r="S65" t="s">
+        <v>17</v>
+      </c>
+      <c r="T65" t="s">
+        <v>112</v>
+      </c>
+      <c r="U65" t="s">
+        <v>17</v>
+      </c>
+      <c r="V65" t="s">
+        <v>112</v>
+      </c>
+      <c r="W65" t="s">
+        <v>17</v>
+      </c>
+      <c r="X65" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>53</v>
+      </c>
+      <c r="M66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>114</v>
+      </c>
+      <c r="O66" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>19</v>
+      </c>
+      <c r="R66" t="s">
+        <v>113</v>
+      </c>
+      <c r="S66" t="s">
+        <v>19</v>
+      </c>
+      <c r="T66" t="s">
+        <v>113</v>
+      </c>
+      <c r="U66" t="s">
+        <v>18</v>
+      </c>
+      <c r="V66" t="s">
+        <v>112</v>
+      </c>
+      <c r="W66" t="s">
+        <v>19</v>
+      </c>
+      <c r="X66" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" t="s">
+        <v>114</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" t="s">
+        <v>114</v>
+      </c>
+      <c r="S67" t="s">
+        <v>22</v>
+      </c>
+      <c r="T67" t="s">
+        <v>114</v>
+      </c>
+      <c r="U67" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" t="s">
+        <v>115</v>
+      </c>
+      <c r="W67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X67" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" t="s">
+        <v>114</v>
+      </c>
+      <c r="O68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P68" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>18</v>
+      </c>
+      <c r="R68" t="s">
+        <v>112</v>
+      </c>
+      <c r="S68" t="s">
+        <v>18</v>
+      </c>
+      <c r="T68" t="s">
+        <v>112</v>
+      </c>
+      <c r="U68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V68" t="s">
+        <v>113</v>
+      </c>
+      <c r="W68" t="s">
+        <v>18</v>
+      </c>
+      <c r="X68" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>99</v>
+      </c>
+      <c r="M69" t="s">
         <v>20</v>
       </c>
-      <c r="Z60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K61" t="s">
-        <v>70</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>112</v>
-      </c>
-      <c r="N61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O61" t="s">
-        <v>113</v>
-      </c>
-      <c r="P61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>113</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="N69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O69" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q69" t="s">
         <v>20</v>
       </c>
-      <c r="S61" t="s">
-        <v>113</v>
-      </c>
-      <c r="T61" t="s">
-        <v>126</v>
-      </c>
-      <c r="U61" t="s">
-        <v>114</v>
-      </c>
-      <c r="X61" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K62" t="s">
-        <v>87</v>
-      </c>
-      <c r="L62" t="s">
-        <v>19</v>
-      </c>
-      <c r="M62" t="s">
-        <v>113</v>
-      </c>
-      <c r="N62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" t="s">
-        <v>112</v>
-      </c>
-      <c r="P62" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>112</v>
-      </c>
-      <c r="R62" t="s">
-        <v>18</v>
-      </c>
-      <c r="S62" t="s">
-        <v>112</v>
-      </c>
-      <c r="T62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U62" t="s">
-        <v>112</v>
-      </c>
-      <c r="X62" t="s">
+      <c r="R69" t="s">
+        <v>113</v>
+      </c>
+      <c r="S69" t="s">
+        <v>19</v>
+      </c>
+      <c r="T69" t="s">
+        <v>113</v>
+      </c>
+      <c r="U69" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s">
+        <v>113</v>
+      </c>
+      <c r="W69" t="s">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" t="s">
+        <v>113</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P70" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>126</v>
+      </c>
+      <c r="R70" t="s">
+        <v>114</v>
+      </c>
+      <c r="S70" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" t="s">
+        <v>114</v>
+      </c>
+      <c r="U70" t="s">
+        <v>23</v>
+      </c>
+      <c r="V70" t="s">
+        <v>115</v>
+      </c>
+      <c r="W70" t="s">
+        <v>126</v>
+      </c>
+      <c r="X70" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>100</v>
+      </c>
+      <c r="M71" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" t="s">
+        <v>114</v>
+      </c>
+      <c r="O71" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" t="s">
+        <v>115</v>
+      </c>
+      <c r="S71" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" t="s">
+        <v>115</v>
+      </c>
+      <c r="U71" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" t="s">
+        <v>115</v>
+      </c>
+      <c r="W71" t="s">
+        <v>22</v>
+      </c>
+      <c r="X71" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>54</v>
+      </c>
+      <c r="M72" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" t="s">
+        <v>114</v>
+      </c>
+      <c r="O72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R72" t="s">
+        <v>112</v>
+      </c>
+      <c r="S72" t="s">
+        <v>18</v>
+      </c>
+      <c r="T72" t="s">
+        <v>112</v>
+      </c>
+      <c r="U72" t="s">
+        <v>18</v>
+      </c>
+      <c r="V72" t="s">
+        <v>112</v>
+      </c>
+      <c r="W72" t="s">
+        <v>18</v>
+      </c>
+      <c r="X72" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" t="s">
+        <v>112</v>
+      </c>
+      <c r="O73" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>131</v>
+      </c>
+      <c r="R73" t="s">
+        <v>112</v>
+      </c>
+      <c r="S73" t="s">
+        <v>125</v>
+      </c>
+      <c r="T73" t="s">
+        <v>113</v>
+      </c>
+      <c r="U73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V73" t="s">
+        <v>113</v>
+      </c>
+      <c r="W73" t="s">
+        <v>131</v>
+      </c>
+      <c r="X73" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L74" t="s">
         <v>55</v>
       </c>
-      <c r="Y62" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K63" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
-        <v>112</v>
-      </c>
-      <c r="N63" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" t="s">
-        <v>113</v>
-      </c>
-      <c r="P63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>113</v>
-      </c>
-      <c r="R63" t="s">
-        <v>19</v>
-      </c>
-      <c r="S63" t="s">
-        <v>113</v>
-      </c>
-      <c r="T63" t="s">
-        <v>126</v>
-      </c>
-      <c r="U63" t="s">
-        <v>114</v>
-      </c>
-      <c r="X63" t="s">
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>113</v>
+      </c>
+      <c r="O74" t="s">
+        <v>19</v>
+      </c>
+      <c r="P74" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>19</v>
+      </c>
+      <c r="R74" t="s">
+        <v>113</v>
+      </c>
+      <c r="S74" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" t="s">
+        <v>114</v>
+      </c>
+      <c r="U74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V74" t="s">
+        <v>114</v>
+      </c>
+      <c r="W74" t="s">
+        <v>126</v>
+      </c>
+      <c r="X74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>71</v>
+      </c>
+      <c r="M75" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" t="s">
+        <v>114</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" t="s">
+        <v>114</v>
+      </c>
+      <c r="S75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T75" t="s">
+        <v>114</v>
+      </c>
+      <c r="U75" t="s">
+        <v>23</v>
+      </c>
+      <c r="V75" t="s">
+        <v>115</v>
+      </c>
+      <c r="W75" t="s">
+        <v>23</v>
+      </c>
+      <c r="X75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>90</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>113</v>
+      </c>
+      <c r="O76" t="s">
+        <v>17</v>
+      </c>
+      <c r="P76" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>17</v>
+      </c>
+      <c r="R76" t="s">
+        <v>112</v>
+      </c>
+      <c r="S76" t="s">
+        <v>18</v>
+      </c>
+      <c r="T76" t="s">
+        <v>112</v>
+      </c>
+      <c r="U76" t="s">
+        <v>18</v>
+      </c>
+      <c r="V76" t="s">
+        <v>112</v>
+      </c>
+      <c r="W76" t="s">
+        <v>17</v>
+      </c>
+      <c r="X76" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>91</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" t="s">
+        <v>113</v>
+      </c>
+      <c r="O77" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>18</v>
+      </c>
+      <c r="R77" t="s">
+        <v>112</v>
+      </c>
+      <c r="S77" t="s">
+        <v>18</v>
+      </c>
+      <c r="T77" t="s">
+        <v>112</v>
+      </c>
+      <c r="U77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V77" t="s">
+        <v>112</v>
+      </c>
+      <c r="W77" t="s">
+        <v>17</v>
+      </c>
+      <c r="X77" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" t="s">
+        <v>114</v>
+      </c>
+      <c r="O78" t="s">
+        <v>18</v>
+      </c>
+      <c r="P78" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>18</v>
+      </c>
+      <c r="R78" t="s">
+        <v>112</v>
+      </c>
+      <c r="S78" t="s">
+        <v>18</v>
+      </c>
+      <c r="T78" t="s">
+        <v>112</v>
+      </c>
+      <c r="U78" t="s">
+        <v>18</v>
+      </c>
+      <c r="V78" t="s">
+        <v>112</v>
+      </c>
+      <c r="W78" t="s">
+        <v>19</v>
+      </c>
+      <c r="X78" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>109</v>
+      </c>
+      <c r="M79" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" t="s">
+        <v>112</v>
+      </c>
+      <c r="O79" t="s">
+        <v>18</v>
+      </c>
+      <c r="P79" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>19</v>
+      </c>
+      <c r="R79" t="s">
+        <v>113</v>
+      </c>
+      <c r="S79" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" t="s">
+        <v>112</v>
+      </c>
+      <c r="U79" t="s">
+        <v>17</v>
+      </c>
+      <c r="V79" t="s">
+        <v>112</v>
+      </c>
+      <c r="W79" t="s">
+        <v>19</v>
+      </c>
+      <c r="X79" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L80" t="s">
+        <v>56</v>
+      </c>
+      <c r="M80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
+        <v>114</v>
+      </c>
+      <c r="O80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P80" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>18</v>
+      </c>
+      <c r="R80" t="s">
+        <v>112</v>
+      </c>
+      <c r="S80" t="s">
+        <v>17</v>
+      </c>
+      <c r="T80" t="s">
+        <v>112</v>
+      </c>
+      <c r="U80" t="s">
+        <v>18</v>
+      </c>
+      <c r="V80" t="s">
+        <v>112</v>
+      </c>
+      <c r="W80" t="s">
+        <v>19</v>
+      </c>
+      <c r="X80" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L81" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" t="s">
+        <v>114</v>
+      </c>
+      <c r="O81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>18</v>
+      </c>
+      <c r="R81" t="s">
+        <v>112</v>
+      </c>
+      <c r="S81" t="s">
+        <v>19</v>
+      </c>
+      <c r="T81" t="s">
+        <v>113</v>
+      </c>
+      <c r="U81" t="s">
+        <v>18</v>
+      </c>
+      <c r="V81" t="s">
+        <v>112</v>
+      </c>
+      <c r="W81" t="s">
+        <v>17</v>
+      </c>
+      <c r="X81" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
+        <v>58</v>
+      </c>
+      <c r="M82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" t="s">
+        <v>114</v>
+      </c>
+      <c r="O82" t="s">
+        <v>19</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>18</v>
+      </c>
+      <c r="R82" t="s">
+        <v>112</v>
+      </c>
+      <c r="S82" t="s">
+        <v>19</v>
+      </c>
+      <c r="T82" t="s">
+        <v>113</v>
+      </c>
+      <c r="U82" t="s">
+        <v>19</v>
+      </c>
+      <c r="V82" t="s">
+        <v>113</v>
+      </c>
+      <c r="W82" t="s">
+        <v>18</v>
+      </c>
+      <c r="X82" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH82" t="s">
         <v>36</v>
       </c>
-      <c r="Y63" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L64" t="s">
-        <v>15</v>
-      </c>
-      <c r="M64" t="s">
-        <v>111</v>
-      </c>
-      <c r="N64" t="s">
-        <v>17</v>
-      </c>
-      <c r="O64" t="s">
-        <v>112</v>
-      </c>
-      <c r="P64" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>112</v>
-      </c>
-      <c r="R64" t="s">
-        <v>19</v>
-      </c>
-      <c r="S64" t="s">
-        <v>113</v>
-      </c>
-      <c r="T64" t="s">
-        <v>18</v>
-      </c>
-      <c r="U64" t="s">
-        <v>112</v>
-      </c>
-      <c r="X64" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K65" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" t="s">
-        <v>114</v>
-      </c>
-      <c r="N65" t="s">
-        <v>17</v>
-      </c>
-      <c r="O65" t="s">
-        <v>112</v>
-      </c>
-      <c r="P65" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>112</v>
-      </c>
-      <c r="R65" t="s">
-        <v>17</v>
-      </c>
-      <c r="S65" t="s">
-        <v>112</v>
-      </c>
-      <c r="T65" t="s">
-        <v>17</v>
-      </c>
-      <c r="U65" t="s">
-        <v>112</v>
-      </c>
-      <c r="X65" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K66" t="s">
-        <v>53</v>
-      </c>
-      <c r="L66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" t="s">
-        <v>114</v>
-      </c>
-      <c r="N66" t="s">
-        <v>18</v>
-      </c>
-      <c r="O66" t="s">
-        <v>112</v>
-      </c>
-      <c r="P66" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>113</v>
-      </c>
-      <c r="R66" t="s">
-        <v>19</v>
-      </c>
-      <c r="S66" t="s">
-        <v>113</v>
-      </c>
-      <c r="T66" t="s">
-        <v>18</v>
-      </c>
-      <c r="U66" t="s">
-        <v>112</v>
-      </c>
-      <c r="X66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K67" t="s">
-        <v>88</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="AI82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>59</v>
+      </c>
+      <c r="M83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" t="s">
+        <v>113</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" t="s">
+        <v>114</v>
+      </c>
+      <c r="S83" t="s">
+        <v>21</v>
+      </c>
+      <c r="T83" t="s">
+        <v>114</v>
+      </c>
+      <c r="U83" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
-        <v>114</v>
-      </c>
-      <c r="N67" t="s">
-        <v>126</v>
-      </c>
-      <c r="O67" t="s">
-        <v>114</v>
-      </c>
-      <c r="P67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>114</v>
-      </c>
-      <c r="R67" t="s">
-        <v>22</v>
-      </c>
-      <c r="S67" t="s">
-        <v>114</v>
-      </c>
-      <c r="T67" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" t="s">
-        <v>115</v>
-      </c>
-      <c r="X67" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K68" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" t="s">
-        <v>114</v>
-      </c>
-      <c r="N68" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68" t="s">
-        <v>112</v>
-      </c>
-      <c r="P68" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>112</v>
-      </c>
-      <c r="R68" t="s">
-        <v>18</v>
-      </c>
-      <c r="S68" t="s">
-        <v>112</v>
-      </c>
-      <c r="T68" t="s">
-        <v>19</v>
-      </c>
-      <c r="U68" t="s">
-        <v>113</v>
-      </c>
-      <c r="X68" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K69" t="s">
-        <v>99</v>
-      </c>
-      <c r="L69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" t="s">
-        <v>113</v>
-      </c>
-      <c r="N69" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" t="s">
-        <v>113</v>
-      </c>
-      <c r="P69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>113</v>
-      </c>
-      <c r="R69" t="s">
-        <v>19</v>
-      </c>
-      <c r="S69" t="s">
-        <v>113</v>
-      </c>
-      <c r="T69" t="s">
-        <v>20</v>
-      </c>
-      <c r="U69" t="s">
-        <v>113</v>
-      </c>
-      <c r="X69" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K70" t="s">
-        <v>36</v>
-      </c>
-      <c r="L70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" t="s">
-        <v>113</v>
-      </c>
-      <c r="N70" t="s">
-        <v>126</v>
-      </c>
-      <c r="O70" t="s">
-        <v>114</v>
-      </c>
-      <c r="P70" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>114</v>
-      </c>
-      <c r="R70" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" t="s">
-        <v>114</v>
-      </c>
-      <c r="T70" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" t="s">
-        <v>115</v>
-      </c>
-      <c r="X70" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K71" t="s">
-        <v>100</v>
-      </c>
-      <c r="L71" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" t="s">
-        <v>114</v>
-      </c>
-      <c r="N71" t="s">
-        <v>22</v>
-      </c>
-      <c r="O71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P71" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>115</v>
-      </c>
-      <c r="R71" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" t="s">
-        <v>115</v>
-      </c>
-      <c r="T71" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" t="s">
-        <v>115</v>
-      </c>
-      <c r="X71" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K72" t="s">
-        <v>54</v>
-      </c>
-      <c r="L72" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" t="s">
-        <v>114</v>
-      </c>
-      <c r="N72" t="s">
-        <v>18</v>
-      </c>
-      <c r="O72" t="s">
-        <v>112</v>
-      </c>
-      <c r="P72" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>112</v>
-      </c>
-      <c r="R72" t="s">
-        <v>18</v>
-      </c>
-      <c r="S72" t="s">
-        <v>112</v>
-      </c>
-      <c r="T72" t="s">
-        <v>18</v>
-      </c>
-      <c r="U72" t="s">
-        <v>112</v>
-      </c>
-      <c r="X72" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K73" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>112</v>
-      </c>
-      <c r="N73" t="s">
-        <v>18</v>
-      </c>
-      <c r="O73" t="s">
-        <v>112</v>
-      </c>
-      <c r="P73" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>112</v>
-      </c>
-      <c r="R73" t="s">
-        <v>125</v>
-      </c>
-      <c r="S73" t="s">
-        <v>113</v>
-      </c>
-      <c r="T73" t="s">
-        <v>19</v>
-      </c>
-      <c r="U73" t="s">
-        <v>113</v>
-      </c>
-      <c r="X73" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K74" t="s">
-        <v>55</v>
-      </c>
-      <c r="L74" t="s">
-        <v>19</v>
-      </c>
-      <c r="M74" t="s">
-        <v>113</v>
-      </c>
-      <c r="N74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O74" t="s">
-        <v>113</v>
-      </c>
-      <c r="P74" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>113</v>
-      </c>
-      <c r="R74" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" t="s">
-        <v>114</v>
-      </c>
-      <c r="T74" t="s">
-        <v>22</v>
-      </c>
-      <c r="U74" t="s">
-        <v>114</v>
-      </c>
-      <c r="X74" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K75" t="s">
-        <v>71</v>
-      </c>
-      <c r="L75" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" t="s">
-        <v>114</v>
-      </c>
-      <c r="N75" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" t="s">
-        <v>114</v>
-      </c>
-      <c r="P75" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>114</v>
-      </c>
-      <c r="R75" t="s">
-        <v>22</v>
-      </c>
-      <c r="S75" t="s">
-        <v>114</v>
-      </c>
-      <c r="T75" t="s">
-        <v>23</v>
-      </c>
-      <c r="U75" t="s">
-        <v>115</v>
-      </c>
-      <c r="X75" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K76" t="s">
-        <v>90</v>
-      </c>
-      <c r="L76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M76" t="s">
-        <v>113</v>
-      </c>
-      <c r="N76" t="s">
-        <v>17</v>
-      </c>
-      <c r="O76" t="s">
-        <v>112</v>
-      </c>
-      <c r="P76" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>112</v>
-      </c>
-      <c r="R76" t="s">
-        <v>18</v>
-      </c>
-      <c r="S76" t="s">
-        <v>112</v>
-      </c>
-      <c r="T76" t="s">
-        <v>18</v>
-      </c>
-      <c r="U76" t="s">
-        <v>112</v>
-      </c>
-      <c r="X76" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K77" t="s">
-        <v>91</v>
-      </c>
-      <c r="L77" t="s">
-        <v>19</v>
-      </c>
-      <c r="M77" t="s">
-        <v>113</v>
-      </c>
-      <c r="N77" t="s">
-        <v>17</v>
-      </c>
-      <c r="O77" t="s">
-        <v>112</v>
-      </c>
-      <c r="P77" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>112</v>
-      </c>
-      <c r="R77" t="s">
-        <v>18</v>
-      </c>
-      <c r="S77" t="s">
-        <v>112</v>
-      </c>
-      <c r="T77" t="s">
-        <v>18</v>
-      </c>
-      <c r="U77" t="s">
-        <v>112</v>
-      </c>
-      <c r="X77" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K78" t="s">
-        <v>92</v>
-      </c>
-      <c r="L78" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" t="s">
-        <v>114</v>
-      </c>
-      <c r="N78" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78" t="s">
-        <v>112</v>
-      </c>
-      <c r="P78" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>112</v>
-      </c>
-      <c r="R78" t="s">
-        <v>18</v>
-      </c>
-      <c r="S78" t="s">
-        <v>112</v>
-      </c>
-      <c r="T78" t="s">
-        <v>18</v>
-      </c>
-      <c r="U78" t="s">
-        <v>112</v>
-      </c>
-      <c r="X78" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K79" t="s">
-        <v>109</v>
-      </c>
-      <c r="L79" t="s">
-        <v>17</v>
-      </c>
-      <c r="M79" t="s">
-        <v>112</v>
-      </c>
-      <c r="N79" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79" t="s">
-        <v>112</v>
-      </c>
-      <c r="P79" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>113</v>
-      </c>
-      <c r="R79" t="s">
-        <v>18</v>
-      </c>
-      <c r="S79" t="s">
-        <v>112</v>
-      </c>
-      <c r="T79" t="s">
-        <v>17</v>
-      </c>
-      <c r="U79" t="s">
-        <v>112</v>
-      </c>
-      <c r="X79" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K80" t="s">
-        <v>56</v>
-      </c>
-      <c r="L80" t="s">
-        <v>21</v>
-      </c>
-      <c r="M80" t="s">
-        <v>114</v>
-      </c>
-      <c r="N80" t="s">
-        <v>18</v>
-      </c>
-      <c r="O80" t="s">
-        <v>112</v>
-      </c>
-      <c r="P80" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>112</v>
-      </c>
-      <c r="R80" t="s">
-        <v>17</v>
-      </c>
-      <c r="S80" t="s">
-        <v>112</v>
-      </c>
-      <c r="T80" t="s">
-        <v>18</v>
-      </c>
-      <c r="U80" t="s">
-        <v>112</v>
-      </c>
-      <c r="X80" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K81" t="s">
-        <v>57</v>
-      </c>
-      <c r="L81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M81" t="s">
-        <v>114</v>
-      </c>
-      <c r="N81" t="s">
-        <v>17</v>
-      </c>
-      <c r="O81" t="s">
-        <v>112</v>
-      </c>
-      <c r="P81" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>112</v>
-      </c>
-      <c r="R81" t="s">
-        <v>19</v>
-      </c>
-      <c r="S81" t="s">
-        <v>113</v>
-      </c>
-      <c r="T81" t="s">
-        <v>18</v>
-      </c>
-      <c r="U81" t="s">
-        <v>112</v>
-      </c>
-      <c r="X81" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K82" t="s">
-        <v>58</v>
-      </c>
-      <c r="L82" t="s">
-        <v>21</v>
-      </c>
-      <c r="M82" t="s">
-        <v>114</v>
-      </c>
-      <c r="N82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P82" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>112</v>
-      </c>
-      <c r="R82" t="s">
-        <v>19</v>
-      </c>
-      <c r="S82" t="s">
-        <v>113</v>
-      </c>
-      <c r="T82" t="s">
-        <v>19</v>
-      </c>
-      <c r="U82" t="s">
-        <v>113</v>
-      </c>
-      <c r="X82" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K83" t="s">
-        <v>59</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83" t="s">
-        <v>113</v>
-      </c>
-      <c r="N83" t="s">
-        <v>21</v>
-      </c>
-      <c r="O83" t="s">
-        <v>114</v>
-      </c>
-      <c r="P83" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>114</v>
-      </c>
-      <c r="R83" t="s">
-        <v>21</v>
-      </c>
-      <c r="S83" t="s">
-        <v>114</v>
-      </c>
-      <c r="T83" t="s">
-        <v>22</v>
-      </c>
-      <c r="U83" t="s">
-        <v>114</v>
+      <c r="V83" t="s">
+        <v>114</v>
+      </c>
+      <c r="W83" t="s">
+        <v>21</v>
       </c>
       <c r="X83" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="Y83" t="s">
         <v>22</v>
@@ -5724,175 +7340,247 @@
       <c r="Z83" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="84" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K84" t="s">
+      <c r="AA83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L84" t="s">
         <v>101</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="s">
-        <v>114</v>
-      </c>
       <c r="N84" t="s">
+        <v>114</v>
+      </c>
+      <c r="O84" t="s">
         <v>20</v>
       </c>
-      <c r="O84" t="s">
-        <v>113</v>
-      </c>
       <c r="P84" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="Q84" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="R84" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="S84" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T84" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U84" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="V84" t="s">
+        <v>114</v>
+      </c>
+      <c r="W84" t="s">
+        <v>20</v>
       </c>
       <c r="X84" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>93</v>
+      </c>
+      <c r="M85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" t="s">
+        <v>114</v>
+      </c>
+      <c r="O85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P85" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" t="s">
+        <v>113</v>
+      </c>
+      <c r="S85" t="s">
+        <v>19</v>
+      </c>
+      <c r="T85" t="s">
+        <v>113</v>
+      </c>
+      <c r="U85" t="s">
+        <v>18</v>
+      </c>
+      <c r="V85" t="s">
+        <v>112</v>
+      </c>
+      <c r="W85" t="s">
+        <v>18</v>
+      </c>
+      <c r="X85" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L86" t="s">
+        <v>72</v>
+      </c>
+      <c r="M86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" t="s">
+        <v>113</v>
+      </c>
+      <c r="O86" t="s">
+        <v>125</v>
+      </c>
+      <c r="P86" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>20</v>
+      </c>
+      <c r="R86" t="s">
+        <v>113</v>
+      </c>
+      <c r="S86" t="s">
+        <v>20</v>
+      </c>
+      <c r="T86" t="s">
+        <v>113</v>
+      </c>
+      <c r="U86" t="s">
+        <v>21</v>
+      </c>
+      <c r="V86" t="s">
+        <v>114</v>
+      </c>
+      <c r="W86" t="s">
+        <v>19</v>
+      </c>
+      <c r="X86" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
         <v>60</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="M87" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" t="s">
+        <v>114</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R87" t="s">
+        <v>114</v>
+      </c>
+      <c r="S87" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" t="s">
+        <v>115</v>
+      </c>
+      <c r="U87" t="s">
+        <v>23</v>
+      </c>
+      <c r="V87" t="s">
+        <v>115</v>
+      </c>
+      <c r="W87" t="s">
         <v>22</v>
       </c>
-      <c r="Z84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K85" t="s">
-        <v>93</v>
-      </c>
-      <c r="L85" t="s">
-        <v>21</v>
-      </c>
-      <c r="M85" t="s">
-        <v>114</v>
-      </c>
-      <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85" t="s">
-        <v>112</v>
-      </c>
-      <c r="P85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>113</v>
-      </c>
-      <c r="R85" t="s">
-        <v>19</v>
-      </c>
-      <c r="S85" t="s">
-        <v>113</v>
-      </c>
-      <c r="T85" t="s">
-        <v>18</v>
-      </c>
-      <c r="U85" t="s">
-        <v>112</v>
-      </c>
-      <c r="X85" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K86" t="s">
-        <v>72</v>
-      </c>
-      <c r="L86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" t="s">
-        <v>113</v>
-      </c>
-      <c r="N86" t="s">
-        <v>125</v>
-      </c>
-      <c r="O86" t="s">
-        <v>113</v>
-      </c>
-      <c r="P86" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>113</v>
-      </c>
-      <c r="R86" t="s">
-        <v>20</v>
-      </c>
-      <c r="S86" t="s">
-        <v>113</v>
-      </c>
-      <c r="T86" t="s">
-        <v>21</v>
-      </c>
-      <c r="U86" t="s">
-        <v>114</v>
-      </c>
-      <c r="X86" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K87" t="s">
-        <v>60</v>
-      </c>
-      <c r="L87" t="s">
-        <v>21</v>
-      </c>
-      <c r="M87" t="s">
-        <v>114</v>
-      </c>
-      <c r="N87" t="s">
-        <v>21</v>
-      </c>
-      <c r="O87" t="s">
-        <v>114</v>
-      </c>
-      <c r="P87" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>114</v>
-      </c>
-      <c r="R87" t="s">
-        <v>23</v>
-      </c>
-      <c r="S87" t="s">
-        <v>115</v>
-      </c>
-      <c r="T87" t="s">
-        <v>23</v>
-      </c>
-      <c r="U87" t="s">
-        <v>115</v>
-      </c>
       <c r="X87" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="Y87" t="s">
         <v>23</v>
@@ -5900,54 +7588,87 @@
       <c r="Z87" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="88" spans="11:26" x14ac:dyDescent="0.2">
-      <c r="K88" t="s">
+      <c r="AA87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="12:36" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
         <v>61</v>
       </c>
-      <c r="L88" t="s">
-        <v>21</v>
-      </c>
       <c r="M88" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O88" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="P88" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="Q88" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="R88" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="S88" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="T88" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="U88" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="V88" t="s">
+        <v>112</v>
+      </c>
+      <c r="W88" t="s">
+        <v>18</v>
       </c>
       <c r="X88" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Y88" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI88" t="s">
         <v>23</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AJ88" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="Y2:AA88">
-    <sortCondition ref="Y1"/>
+  <sortState ref="AH2:AJ88">
+    <sortCondition ref="AI1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
